--- a/7_3_test_2/7_3_test.xlsx
+++ b/7_3_test_2/7_3_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/workspace/workspace-endo3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/workspace/workspace-endo2/7_programming_jisyu/7_3_test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDAA55C9-53D1-4A78-B22D-2A1BDD044FCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{DDAA55C9-53D1-4A78-B22D-2A1BDD044FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7F41F8D-CAF3-4E36-AF14-343164FEECD3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FAE6D0D-3917-4C5C-8A49-6F035E7C489B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="116">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -445,6 +445,648 @@
     <t>作成日：5/17</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（姓）のテキストボックス内が初期値は空欄になっているか確認。</t>
+    <rPh sb="6" eb="8">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空欄になっている。</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10文字で入力が終わる。</t>
+  </si>
+  <si>
+    <t>10文字で入力が終わる。</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面偏移</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが表示される。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（姓）のテキストボックス内に10文字全て漢字で入力する。</t>
+    <rPh sb="45" eb="46">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した内容が全て入る。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（姓）のテキストボックス内に10文字以内で記号を入力する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（姓）のテキストボックス内に10文字以内で数字を入力する。</t>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（姓）のテキストボックス内に10文字以内でアルファベットを入力する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認するプログラム</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.htm,regist.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（名）のテキストボックス内が初期値は空欄になっているか確認。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（名）のテキストボックス内に11文字ひらがなで入力する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（姓）のテキストボックス内に11文字ひらがなで入力する。</t>
+    <rPh sb="6" eb="8">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（名）のテキストボックス内に10文字全て漢字で入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（名）のテキストボックス内に10文字以内で数字を入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（名）のテキストボックス内に10文字以内で記号を入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（名）のテキストボックス内に10文字以内でアルファベットを入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（姓）のテキストボックス内が初期値は空欄になっているか確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（姓）のテキストボックス内に11文字カタカナで入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（姓）のテキストボックス内に10文字全てカタカナで入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（姓）のテキストボックス内に10文字以内でアルファベットを入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（姓）のテキストボックス内に10文字以内でひらがなを入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（姓）のテキストボックス内に10文字以内で記号を入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（姓）のテキストボックス内に10文字以内で漢字を入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（名）のテキストボックス内が初期値は空欄になっているか確認。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（名）のテキストボックス内に11文字カタカナで入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（名）のテキストボックス内に10文字全てカタカナで入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（名）のテキストボックス内に10文字以内でひらがなを入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（名）のテキストボックス内に10文字以内で記号を入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（名）のテキストボックス内に10文字以内で漢字を入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（名）のテキストボックス内に10文字以内でアルファベットを入力する。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②メールアドレスのテキストボックス内に101文字でアルファベットを入力する。</t>
+    <rPh sb="46" eb="48">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②メールアドレスのテキストボックス内に100文字で数字を入力する。</t>
+    <rPh sb="49" eb="51">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②メールアドレスのテキストボックス内に10文字で半角アットマークと半角ハイフンを入力する。</t>
+    <rPh sb="48" eb="50">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②メールアドレスのテキストボックス内が初期値は空欄になっているか確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②メールアドレスのテキストボックス内に10文字で半角アットマークと半角ハイフン以外の記号を入力する。</t>
+    <rPh sb="63" eb="65">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②パスワードのテキストボックス内が初期値は空欄になっているか確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②パスワードのテキストボックス内に11文字で半角アルファベットを入力する。</t>
+    <rPh sb="46" eb="48">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②パスワードのテキストボックス内に10文字で半角数字を入力する。</t>
+    <rPh sb="46" eb="48">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②パスワードのテキストボックス内に10文字で全角数字と全角アルファベットを入力する。</t>
+    <rPh sb="46" eb="48">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②性別のラジオボタンが初期値は男になっているか確認。</t>
+    <rPh sb="25" eb="27">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②性別のラジオボタンを女にして次へ進むを押す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②郵便番号のテキストボックス内が初期値は空欄になっているか確認。</t>
+    <rPh sb="25" eb="29">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②郵便番号のテキストボックス内に8文字で半角数字を入力する。</t>
+    <rPh sb="25" eb="29">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②郵便番号のテキストボックス内に7文字で全角数字を入力する。</t>
+    <rPh sb="44" eb="46">
+      <t>ゼンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②郵便番号のテキストボックス内に7文字でアルファベットを入力する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（都道府県）のプルダウンが初期値は空欄になっているか確認。</t>
+    <rPh sb="25" eb="27">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（都道府県）のプルダウンを開き北海道を選択し、次へ進むを押す。</t>
+    <rPh sb="40" eb="41">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>ホッカイドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（市区町村）のテキストボックス内が初期値は空欄になっているか確認。</t>
+    <rPh sb="25" eb="27">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（市区町村）のテキストボックス内に11文字ひらがなで入力する。</t>
+    <rPh sb="25" eb="27">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（市区町村）のテキストボックス内に10文字漢字で入力する。</t>
+    <rPh sb="48" eb="50">
+      <t>カンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（市区町村）のテキストボックス内に10文字以内で数字で入力する。</t>
+    <rPh sb="48" eb="50">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（市区町村）のテキストボックス内に10文字以内でカタカナで入力する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（市区町村）のテキストボックス内に10文字以内で記号（ハイフンとスペース）で入力する。</t>
+    <rPh sb="51" eb="53">
+      <t>キゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（市区町村）のテキストボックス内に10文字以内で記号（ハイフンとスペース以外）で入力する。</t>
+    <rPh sb="63" eb="65">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（番地）のテキストボックス内が初期値は空欄になっているか確認。</t>
+    <rPh sb="28" eb="30">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（番地）のテキストボックス内に101文字でひらがなで入力する。</t>
+    <rPh sb="28" eb="30">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（番地）のテキストボックス内に100文字以内で漢字で入力する。</t>
+    <rPh sb="28" eb="30">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（番地）のテキストボックス内に100文字で数字で入力する。</t>
+    <rPh sb="28" eb="30">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（番地）のテキストボックス内に100文字以内で記号（ハイフンとスペース）で入力する。</t>
+    <rPh sb="28" eb="30">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（番地）のテキストボックス内に100文字以内でカタカナで入力する。</t>
+    <rPh sb="28" eb="30">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（番地）のテキストボックス内に100文字以内で記号（ハイフンとスペース以外）で入力する。</t>
+    <rPh sb="28" eb="30">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②管理者のプルダウンが初期値は一般になっているか確認。</t>
+    <rPh sb="25" eb="28">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②管理者のプルダウンを管理者にしてエラーがでないか確認。</t>
+    <rPh sb="35" eb="38">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②No,,,,,,の順で値を入力し登録するをクリック。</t>
+    <rPh sb="34" eb="35">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_comfirm.phpに画面偏移する。</t>
+    <rPh sb="19" eb="23">
+      <t>ガメンヘンイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -484,7 +1126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -746,13 +1388,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -774,9 +1455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -849,9 +1527,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -877,6 +1552,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1202,180 +1916,1239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE120A15-3C36-4CC9-99A1-A48CE8DCA9D0}">
-  <dimension ref="C2:K14"/>
+  <dimension ref="C2:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="4.5" customWidth="1"/>
-    <col min="4" max="4" width="19.59765625" customWidth="1"/>
-    <col min="5" max="5" width="55.796875" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" customWidth="1"/>
-    <col min="10" max="10" width="11.3984375" customWidth="1"/>
-    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="55.796875" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="D2" s="41" t="s">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39"/>
+      <c r="F2" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="39" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="D3" s="41"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="41" t="s">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D3" s="39"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C6" s="38" t="s">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C6" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="G6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="H6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="I6" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="J6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="K6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="L6" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:11" ht="36" x14ac:dyDescent="0.45">
-      <c r="C7" s="32">
+    <row r="7" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C7" s="40">
         <v>1</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="34">
+        <v>44333</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C8" s="40">
+        <v>2</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="36">
-        <v>44333</v>
-      </c>
-      <c r="J7" s="35"/>
-      <c r="K7" s="37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C8" s="32"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E8" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C9" s="40">
+        <v>3</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C10" s="40">
+        <v>4</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C11" s="40">
+        <v>5</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C12" s="40">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C13" s="40">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.45">
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C14" s="40">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C15" s="48">
+        <v>9</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="52"/>
+    </row>
+    <row r="16" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C16" s="48">
+        <v>10</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="52"/>
+    </row>
+    <row r="17" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C17" s="48">
+        <v>11</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C18" s="48">
+        <v>12</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="52"/>
+    </row>
+    <row r="19" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C19" s="48">
+        <v>13</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="52"/>
+    </row>
+    <row r="20" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C20" s="48">
+        <v>14</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C21" s="48">
+        <v>15</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C22" s="48">
+        <v>16</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="52"/>
+    </row>
+    <row r="23" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C23" s="48">
+        <v>17</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="52"/>
+    </row>
+    <row r="24" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C24" s="48">
+        <v>18</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="52"/>
+    </row>
+    <row r="25" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C25" s="48">
+        <v>19</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="52"/>
+    </row>
+    <row r="26" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C26" s="48">
+        <v>20</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="52"/>
+    </row>
+    <row r="27" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C27" s="48">
+        <v>21</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="52"/>
+    </row>
+    <row r="28" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C28" s="48">
+        <v>22</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="52"/>
+    </row>
+    <row r="29" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C29" s="48">
+        <v>23</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="52"/>
+    </row>
+    <row r="30" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C30" s="48">
+        <v>24</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="52"/>
+    </row>
+    <row r="31" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C31" s="48">
+        <v>25</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="52"/>
+    </row>
+    <row r="32" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C32" s="48">
+        <v>26</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="52"/>
+    </row>
+    <row r="33" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C33" s="48">
+        <v>27</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
+    </row>
+    <row r="34" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C34" s="48">
+        <v>28</v>
+      </c>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="52"/>
+    </row>
+    <row r="35" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C35" s="48">
+        <v>29</v>
+      </c>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="52"/>
+    </row>
+    <row r="36" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C36" s="48">
+        <v>30</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="52"/>
+    </row>
+    <row r="37" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C37" s="48">
+        <v>31</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="52"/>
+    </row>
+    <row r="38" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C38" s="48">
+        <v>32</v>
+      </c>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="52"/>
+    </row>
+    <row r="39" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C39" s="48">
+        <v>33</v>
+      </c>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="52"/>
+    </row>
+    <row r="40" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C40" s="48">
+        <v>34</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="52"/>
+    </row>
+    <row r="41" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C41" s="48">
+        <v>35</v>
+      </c>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="52"/>
+    </row>
+    <row r="42" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C42" s="48"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="52"/>
+    </row>
+    <row r="43" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C43" s="48"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="52"/>
+    </row>
+    <row r="44" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C44" s="48"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="52"/>
+    </row>
+    <row r="45" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C45" s="48"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="52"/>
+    </row>
+    <row r="46" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C46" s="48"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="G46" s="51"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="52"/>
+    </row>
+    <row r="47" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="52"/>
+    </row>
+    <row r="48" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="52"/>
+    </row>
+    <row r="49" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="52"/>
+    </row>
+    <row r="50" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="52"/>
+    </row>
+    <row r="51" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="52"/>
+    </row>
+    <row r="52" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="52"/>
+    </row>
+    <row r="53" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="52"/>
+    </row>
+    <row r="54" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C54" s="48"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="52"/>
+    </row>
+    <row r="55" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C55" s="48"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="52"/>
+    </row>
+    <row r="56" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C56" s="48"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="52"/>
+    </row>
+    <row r="57" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C57" s="48"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="52"/>
+    </row>
+    <row r="58" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C58" s="48"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="52"/>
+    </row>
+    <row r="59" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="52"/>
+    </row>
+    <row r="60" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C60" s="48"/>
+      <c r="D60" s="49"/>
+      <c r="E60" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="52"/>
+    </row>
+    <row r="61" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C61" s="48"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="52"/>
+    </row>
+    <row r="62" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C62" s="48"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="52"/>
+    </row>
+    <row r="63" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C63" s="48"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="52"/>
+    </row>
+    <row r="64" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C64" s="48"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" s="51"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="52"/>
+    </row>
+    <row r="65" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C65" s="48"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="52"/>
+    </row>
+    <row r="66" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C66" s="48"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="52"/>
+    </row>
+    <row r="67" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C67" s="48"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G67" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="52"/>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C68" s="48"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="52"/>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C69" s="48"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="52"/>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C70" s="41">
+        <v>14</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C71" s="44"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,24 +3199,24 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1452,40 +3225,40 @@
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="D8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>3</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C10" s="3">
@@ -1512,7 +3285,7 @@
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="6"/>
@@ -1533,49 +3306,49 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="24">
-        <v>7</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="23">
+        <v>7</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="27"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="24">
+      <c r="C14" s="23">
         <v>8</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="28">
+      <c r="C15" s="27">
         <v>9</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/7_3_test_2/7_3_test.xlsx
+++ b/7_3_test_2/7_3_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/workspace/workspace-endo2/7_programming_jisyu/7_3_test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{DDAA55C9-53D1-4A78-B22D-2A1BDD044FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7F41F8D-CAF3-4E36-AF14-343164FEECD3}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{075EAFEB-CEDD-4993-A540-33520A749FFB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FAE6D0D-3917-4C5C-8A49-6F035E7C489B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="145">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -403,13 +403,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント登録</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Google Chrome
 Windows10</t>
     <phoneticPr fontId="1"/>
@@ -501,16 +494,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面偏移</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エラーが表示される。</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
@@ -1068,26 +1051,355 @@
   </si>
   <si>
     <t>①No.1の手順でregist.phpを開く。
-②No,,,,,,の順で値を入力し登録するをクリック。</t>
+②名前（姓）のテキストボックス内が初期値は空欄になっているか確認。
+③何も入力せず、登録するを押す。</t>
+    <rPh sb="59" eb="60">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②名前（名）のテキストボックス内が初期値は空欄になっているか確認。
+③何も入力せず、登録するを押す。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（姓）のテキストボックス内が初期値は空欄になっているか確認。
+③何も入力せず、登録するを押す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②カナ（名）のテキストボックス内が初期値は空欄になっているか確認。
+③何も入力せず、登録するを押す。</t>
+    <rPh sb="28" eb="29">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②メールアドレスのテキストボックス内が初期値は空欄になっているか確認。
+③何も入力せず、登録するを押す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②パスワードのテキストボックス内が初期値は空欄になっているか確認。
+③何も入力せず、登録するを押す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②郵便番号のテキストボックス内が初期値は空欄になっているか確認。
+③何も入力せず、登録するを押す。</t>
+    <rPh sb="25" eb="29">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（番地）のテキストボックス内が初期値は空欄になっているか確認。
+③何も入力せず、登録するを押す。</t>
+    <rPh sb="25" eb="27">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100文字で入力が終わる。</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男になっている</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次へ進む</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7文字で入力が終わる。</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次へ進む。</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②住所（市区町村）のテキストボックス内が初期値は空欄になっているか確認。
+③何も入力せず、登録するを押す。</t>
+    <rPh sb="25" eb="27">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般になっている。</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーがでない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.phpで入力した内容が表示される。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値が保持されている。</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面偏移する。</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヘンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPMyAdminに入力した内容が表示される。</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②No5,19,27,35,41,44,51,55,63,68の順で値を入力し登録するをクリック。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_comfirm.phpを開く。
+②登録するを押す。</t>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminに入力した内容が反映されているか確認。</t>
+    <rPh sb="46" eb="48">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②TOPページへ戻るを押す。</t>
+    <rPh sb="42" eb="43">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D.I.Blogに画面偏移する。</t>
+    <rPh sb="9" eb="13">
+      <t>ガメンヘンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①regist_complete.phpの22行目の値を存在しない値に変える。
+②No.70の手順でregist_comfirm.phpを開く。
+③登録するを押す。</t>
+    <rPh sb="23" eb="25">
+      <t>ギョウメ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様確認</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③入力した内容が保持されているか確認する。</t>
+    <rPh sb="7" eb="9">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒラ</t>
+    </rPh>
     <rPh sb="34" eb="35">
-      <t>ジュン</t>
+      <t>マエ</t>
     </rPh>
     <rPh sb="36" eb="37">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="55" eb="59">
+      <t>ガメンヘンイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="41" eb="43">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>regist_comfirm.phpに画面偏移する。</t>
+    <rPh sb="68" eb="70">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist_confirm.phpに画面偏移する。</t>
     <rPh sb="19" eb="23">
       <t>ガメンヘンイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.php,
+regist_confirm.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.php,
+regist_confirm.php,
+regist_complete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.php,
+regist_confirm.php,
+regist_complete.php,
+index.htm</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1433,7 +1745,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1601,6 +1913,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1916,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE120A15-3C36-4CC9-99A1-A48CE8DCA9D0}">
-  <dimension ref="C2:L71"/>
+  <dimension ref="C2:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1927,7 +2245,7 @@
     <col min="3" max="3" width="4.5" customWidth="1"/>
     <col min="4" max="5" width="19.59765625" customWidth="1"/>
     <col min="6" max="6" width="55.796875" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
+    <col min="7" max="7" width="38.69921875" customWidth="1"/>
     <col min="8" max="8" width="11.69921875" customWidth="1"/>
     <col min="11" max="11" width="11.3984375" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
@@ -1935,15 +2253,15 @@
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D2" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="53"/>
       <c r="H2" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
@@ -1952,7 +2270,7 @@
       <c r="F3" s="54"/>
       <c r="G3" s="55"/>
       <c r="H3" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.45">
@@ -1963,7 +2281,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>34</v>
@@ -1992,10 +2310,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>36</v>
@@ -2014,7 +2332,7 @@
       </c>
       <c r="K7" s="33"/>
       <c r="L7" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="54" x14ac:dyDescent="0.45">
@@ -2022,16 +2340,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>46</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>47</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="33"/>
@@ -2039,18 +2357,18 @@
       <c r="K8" s="33"/>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" ht="72" x14ac:dyDescent="0.45">
       <c r="C9" s="40">
         <v>3</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>49</v>
@@ -2066,16 +2384,16 @@
         <v>4</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="33"/>
@@ -2083,21 +2401,21 @@
       <c r="K10" s="33"/>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:12" ht="36" x14ac:dyDescent="0.45">
       <c r="C11" s="40">
         <v>5</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>51</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="33"/>
@@ -2109,39 +2427,39 @@
       <c r="C12" s="40">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="3:12" ht="54" x14ac:dyDescent="0.45">
       <c r="C13" s="40">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -2153,15 +2471,17 @@
       <c r="C14" s="40">
         <v>8</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2169,39 +2489,43 @@
       <c r="K14" s="5"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C15" s="48">
+    <row r="15" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C15" s="40">
         <v>9</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="52"/>
-    </row>
-    <row r="16" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C16" s="48">
+      <c r="D15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C16" s="40">
         <v>10</v>
       </c>
-      <c r="D16" s="49"/>
+      <c r="D16" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="50" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="G16" s="51" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="51"/>
@@ -2209,19 +2533,21 @@
       <c r="K16" s="51"/>
       <c r="L16" s="52"/>
     </row>
-    <row r="17" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C17" s="48">
+    <row r="17" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C17" s="40">
         <v>11</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E17" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G17" s="51" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
@@ -2229,19 +2555,21 @@
       <c r="K17" s="51"/>
       <c r="L17" s="52"/>
     </row>
-    <row r="18" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C18" s="48">
+    <row r="18" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C18" s="40">
         <v>12</v>
       </c>
-      <c r="D18" s="49"/>
+      <c r="D18" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E18" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G18" s="51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="51"/>
@@ -2250,18 +2578,20 @@
       <c r="L18" s="52"/>
     </row>
     <row r="19" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C19" s="48">
+      <c r="C19" s="40">
         <v>13</v>
       </c>
-      <c r="D19" s="49"/>
+      <c r="D19" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E19" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G19" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H19" s="51"/>
       <c r="I19" s="51"/>
@@ -2270,18 +2600,20 @@
       <c r="L19" s="52"/>
     </row>
     <row r="20" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C20" s="48">
+      <c r="C20" s="40">
         <v>14</v>
       </c>
-      <c r="D20" s="49"/>
+      <c r="D20" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E20" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="50" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G20" s="51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H20" s="51"/>
       <c r="I20" s="51"/>
@@ -2289,16 +2621,18 @@
       <c r="K20" s="51"/>
       <c r="L20" s="52"/>
     </row>
-    <row r="21" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C21" s="48">
+    <row r="21" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C21" s="40">
         <v>15</v>
       </c>
-      <c r="D21" s="49"/>
+      <c r="D21" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G21" s="51" t="s">
         <v>49</v>
@@ -2310,18 +2644,20 @@
       <c r="L21" s="52"/>
     </row>
     <row r="22" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C22" s="48">
+      <c r="C22" s="40">
         <v>16</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E22" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G22" s="51" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
@@ -2329,19 +2665,21 @@
       <c r="K22" s="51"/>
       <c r="L22" s="52"/>
     </row>
-    <row r="23" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C23" s="48">
+    <row r="23" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C23" s="40">
         <v>17</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E23" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="G23" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
@@ -2349,19 +2687,21 @@
       <c r="K23" s="51"/>
       <c r="L23" s="52"/>
     </row>
-    <row r="24" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C24" s="48">
+    <row r="24" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C24" s="40">
         <v>18</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E24" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="50" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G24" s="51" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H24" s="51"/>
       <c r="I24" s="51"/>
@@ -2370,18 +2710,20 @@
       <c r="L24" s="52"/>
     </row>
     <row r="25" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C25" s="48">
+      <c r="C25" s="40">
         <v>19</v>
       </c>
-      <c r="D25" s="49"/>
+      <c r="D25" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E25" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G25" s="51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H25" s="51"/>
       <c r="I25" s="51"/>
@@ -2390,18 +2732,20 @@
       <c r="L25" s="52"/>
     </row>
     <row r="26" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C26" s="48">
+      <c r="C26" s="40">
         <v>20</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E26" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="51"/>
@@ -2410,35 +2754,43 @@
       <c r="L26" s="52"/>
     </row>
     <row r="27" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C27" s="48">
+      <c r="C27" s="40">
         <v>21</v>
       </c>
-      <c r="D27" s="49"/>
+      <c r="D27" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E27" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="51"/>
+        <v>70</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" s="51"/>
       <c r="I27" s="51"/>
       <c r="J27" s="51"/>
       <c r="K27" s="51"/>
       <c r="L27" s="52"/>
     </row>
-    <row r="28" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C28" s="48">
+    <row r="28" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C28" s="40">
         <v>22</v>
       </c>
-      <c r="D28" s="49"/>
+      <c r="D28" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E28" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" s="51"/>
+        <v>71</v>
+      </c>
+      <c r="G28" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H28" s="51"/>
       <c r="I28" s="51"/>
       <c r="J28" s="51"/>
@@ -2446,17 +2798,21 @@
       <c r="L28" s="52"/>
     </row>
     <row r="29" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C29" s="48">
+      <c r="C29" s="40">
         <v>23</v>
       </c>
-      <c r="D29" s="49"/>
+      <c r="D29" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E29" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="51"/>
+        <v>68</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H29" s="51"/>
       <c r="I29" s="51"/>
       <c r="J29" s="51"/>
@@ -2464,53 +2820,65 @@
       <c r="L29" s="52"/>
     </row>
     <row r="30" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C30" s="48">
+      <c r="C30" s="40">
         <v>24</v>
       </c>
-      <c r="D30" s="49"/>
+      <c r="D30" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E30" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="G30" s="51" t="s">
+        <v>46</v>
+      </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
       <c r="K30" s="51"/>
       <c r="L30" s="52"/>
     </row>
-    <row r="31" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C31" s="48">
+    <row r="31" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C31" s="40">
         <v>25</v>
       </c>
-      <c r="D31" s="49"/>
+      <c r="D31" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E31" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="51"/>
+        <v>115</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H31" s="51"/>
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
       <c r="K31" s="51"/>
       <c r="L31" s="52"/>
     </row>
-    <row r="32" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C32" s="48">
+    <row r="32" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C32" s="40">
         <v>26</v>
       </c>
-      <c r="D32" s="49"/>
+      <c r="D32" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E32" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="51"/>
+        <v>73</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>48</v>
+      </c>
       <c r="H32" s="51"/>
       <c r="I32" s="51"/>
       <c r="J32" s="51"/>
@@ -2518,17 +2886,21 @@
       <c r="L32" s="52"/>
     </row>
     <row r="33" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C33" s="48">
+      <c r="C33" s="40">
         <v>27</v>
       </c>
-      <c r="D33" s="49"/>
+      <c r="D33" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E33" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G33" s="51"/>
+        <v>74</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="H33" s="51"/>
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
@@ -2536,17 +2908,21 @@
       <c r="L33" s="52"/>
     </row>
     <row r="34" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C34" s="48">
+      <c r="C34" s="40">
         <v>28</v>
       </c>
-      <c r="D34" s="49"/>
+      <c r="D34" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E34" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="51"/>
+        <v>75</v>
+      </c>
+      <c r="G34" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H34" s="51"/>
       <c r="I34" s="51"/>
       <c r="J34" s="51"/>
@@ -2554,17 +2930,21 @@
       <c r="L34" s="52"/>
     </row>
     <row r="35" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C35" s="48">
+      <c r="C35" s="40">
         <v>29</v>
       </c>
-      <c r="D35" s="49"/>
+      <c r="D35" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E35" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="51"/>
+        <v>76</v>
+      </c>
+      <c r="G35" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H35" s="51"/>
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
@@ -2572,17 +2952,21 @@
       <c r="L35" s="52"/>
     </row>
     <row r="36" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C36" s="48">
+      <c r="C36" s="40">
         <v>30</v>
       </c>
-      <c r="D36" s="49"/>
+      <c r="D36" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E36" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="51"/>
+        <v>77</v>
+      </c>
+      <c r="G36" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H36" s="51"/>
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
@@ -2590,17 +2974,21 @@
       <c r="L36" s="52"/>
     </row>
     <row r="37" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C37" s="48">
+      <c r="C37" s="40">
         <v>31</v>
       </c>
-      <c r="D37" s="49"/>
+      <c r="D37" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E37" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37" s="51"/>
+        <v>78</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H37" s="51"/>
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
@@ -2608,35 +2996,43 @@
       <c r="L37" s="52"/>
     </row>
     <row r="38" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C38" s="48">
+      <c r="C38" s="40">
         <v>32</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="D38" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E38" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" s="51"/>
+        <v>82</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>46</v>
+      </c>
       <c r="H38" s="51"/>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
       <c r="K38" s="51"/>
       <c r="L38" s="52"/>
     </row>
-    <row r="39" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C39" s="48">
+    <row r="39" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C39" s="40">
         <v>33</v>
       </c>
-      <c r="D39" s="49"/>
+      <c r="D39" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E39" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="51"/>
+        <v>116</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H39" s="51"/>
       <c r="I39" s="51"/>
       <c r="J39" s="51"/>
@@ -2644,17 +3040,21 @@
       <c r="L39" s="52"/>
     </row>
     <row r="40" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C40" s="48">
+      <c r="C40" s="40">
         <v>34</v>
       </c>
-      <c r="D40" s="49"/>
+      <c r="D40" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E40" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="51"/>
+        <v>79</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>120</v>
+      </c>
       <c r="H40" s="51"/>
       <c r="I40" s="51"/>
       <c r="J40" s="51"/>
@@ -2662,17 +3062,21 @@
       <c r="L40" s="52"/>
     </row>
     <row r="41" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C41" s="48">
+      <c r="C41" s="40">
         <v>35</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E41" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="51"/>
+        <v>80</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="H41" s="51"/>
       <c r="I41" s="51"/>
       <c r="J41" s="51"/>
@@ -2680,95 +3084,131 @@
       <c r="L41" s="52"/>
     </row>
     <row r="42" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
+      <c r="C42" s="40">
+        <v>36</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E42" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="G42" s="51"/>
+        <v>81</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
       <c r="J42" s="51"/>
       <c r="K42" s="51"/>
       <c r="L42" s="52"/>
     </row>
-    <row r="43" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C43" s="48"/>
-      <c r="D43" s="49"/>
+    <row r="43" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C43" s="40">
+        <v>37</v>
+      </c>
+      <c r="D43" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E43" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="G43" s="51"/>
+        <v>83</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H43" s="51"/>
       <c r="I43" s="51"/>
       <c r="J43" s="51"/>
       <c r="K43" s="51"/>
       <c r="L43" s="52"/>
     </row>
-    <row r="44" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
+    <row r="44" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C44" s="40">
+        <v>38</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E44" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>46</v>
+      </c>
       <c r="H44" s="51"/>
       <c r="I44" s="51"/>
       <c r="J44" s="51"/>
       <c r="K44" s="51"/>
       <c r="L44" s="52"/>
     </row>
-    <row r="45" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
+    <row r="45" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C45" s="40">
+        <v>39</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E45" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="G45" s="51"/>
+        <v>117</v>
+      </c>
+      <c r="G45" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
       <c r="J45" s="51"/>
       <c r="K45" s="51"/>
       <c r="L45" s="52"/>
     </row>
-    <row r="46" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
+    <row r="46" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C46" s="40">
+        <v>40</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E46" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="G46" s="51"/>
+        <v>85</v>
+      </c>
+      <c r="G46" s="51" t="s">
+        <v>48</v>
+      </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
       <c r="J46" s="51"/>
       <c r="K46" s="51"/>
       <c r="L46" s="52"/>
     </row>
-    <row r="47" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
+    <row r="47" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C47" s="40">
+        <v>41</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E47" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47" s="51"/>
+        <v>86</v>
+      </c>
+      <c r="G47" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
       <c r="J47" s="51"/>
@@ -2776,47 +3216,65 @@
       <c r="L47" s="52"/>
     </row>
     <row r="48" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
+      <c r="C48" s="40">
+        <v>42</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E48" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" s="51"/>
+        <v>87</v>
+      </c>
+      <c r="G48" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H48" s="51"/>
       <c r="I48" s="51"/>
       <c r="J48" s="51"/>
       <c r="K48" s="51"/>
       <c r="L48" s="52"/>
     </row>
-    <row r="49" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
+    <row r="49" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C49" s="40">
+        <v>43</v>
+      </c>
+      <c r="D49" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E49" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" s="51"/>
+        <v>88</v>
+      </c>
+      <c r="G49" s="51" t="s">
+        <v>121</v>
+      </c>
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
       <c r="J49" s="51"/>
       <c r="K49" s="51"/>
       <c r="L49" s="52"/>
     </row>
-    <row r="50" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
+    <row r="50" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C50" s="40">
+        <v>44</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E50" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="51"/>
+        <v>89</v>
+      </c>
+      <c r="G50" s="51" t="s">
+        <v>122</v>
+      </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
       <c r="J50" s="51"/>
@@ -2824,63 +3282,87 @@
       <c r="L50" s="52"/>
     </row>
     <row r="51" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C51" s="48"/>
-      <c r="D51" s="49"/>
+      <c r="C51" s="40">
+        <v>45</v>
+      </c>
+      <c r="D51" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E51" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="G51" s="51"/>
+        <v>90</v>
+      </c>
+      <c r="G51" s="51" t="s">
+        <v>46</v>
+      </c>
       <c r="H51" s="51"/>
       <c r="I51" s="51"/>
       <c r="J51" s="51"/>
       <c r="K51" s="51"/>
       <c r="L51" s="52"/>
     </row>
-    <row r="52" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C52" s="48"/>
-      <c r="D52" s="49"/>
+    <row r="52" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C52" s="40">
+        <v>46</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E52" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="51"/>
+        <v>118</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="51"/>
       <c r="K52" s="51"/>
       <c r="L52" s="52"/>
     </row>
-    <row r="53" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C53" s="48"/>
-      <c r="D53" s="49"/>
+    <row r="53" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C53" s="40">
+        <v>47</v>
+      </c>
+      <c r="D53" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E53" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="G53" s="51"/>
+        <v>91</v>
+      </c>
+      <c r="G53" s="51" t="s">
+        <v>123</v>
+      </c>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
       <c r="L53" s="52"/>
     </row>
-    <row r="54" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
+    <row r="54" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C54" s="40">
+        <v>48</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E54" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="G54" s="51"/>
+        <v>92</v>
+      </c>
+      <c r="G54" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="H54" s="51"/>
       <c r="I54" s="51"/>
       <c r="J54" s="51"/>
@@ -2888,15 +3370,21 @@
       <c r="L54" s="52"/>
     </row>
     <row r="55" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C55" s="48"/>
-      <c r="D55" s="49"/>
+      <c r="C55" s="40">
+        <v>49</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E55" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G55" s="51"/>
+        <v>93</v>
+      </c>
+      <c r="G55" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H55" s="51"/>
       <c r="I55" s="51"/>
       <c r="J55" s="51"/>
@@ -2904,15 +3392,21 @@
       <c r="L55" s="52"/>
     </row>
     <row r="56" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
+      <c r="C56" s="40">
+        <v>50</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E56" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="G56" s="51"/>
+        <v>94</v>
+      </c>
+      <c r="G56" s="51" t="s">
+        <v>46</v>
+      </c>
       <c r="H56" s="51"/>
       <c r="I56" s="51"/>
       <c r="J56" s="51"/>
@@ -2920,15 +3414,21 @@
       <c r="L56" s="52"/>
     </row>
     <row r="57" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C57" s="48"/>
-      <c r="D57" s="49"/>
+      <c r="C57" s="40">
+        <v>51</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E57" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" s="51"/>
+        <v>95</v>
+      </c>
+      <c r="G57" s="51" t="s">
+        <v>124</v>
+      </c>
       <c r="H57" s="51"/>
       <c r="I57" s="51"/>
       <c r="J57" s="51"/>
@@ -2936,31 +3436,43 @@
       <c r="L57" s="52"/>
     </row>
     <row r="58" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
+      <c r="C58" s="40">
+        <v>52</v>
+      </c>
+      <c r="D58" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E58" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="G58" s="51"/>
+        <v>96</v>
+      </c>
+      <c r="G58" s="51" t="s">
+        <v>46</v>
+      </c>
       <c r="H58" s="51"/>
       <c r="I58" s="51"/>
       <c r="J58" s="51"/>
       <c r="K58" s="51"/>
       <c r="L58" s="52"/>
     </row>
-    <row r="59" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C59" s="48"/>
-      <c r="D59" s="49"/>
+    <row r="59" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C59" s="40">
+        <v>53</v>
+      </c>
+      <c r="D59" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E59" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F59" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="G59" s="51"/>
+        <v>125</v>
+      </c>
+      <c r="G59" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H59" s="51"/>
       <c r="I59" s="51"/>
       <c r="J59" s="51"/>
@@ -2968,15 +3480,21 @@
       <c r="L59" s="52"/>
     </row>
     <row r="60" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
+      <c r="C60" s="40">
+        <v>54</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E60" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F60" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="G60" s="51"/>
+        <v>97</v>
+      </c>
+      <c r="G60" s="51" t="s">
+        <v>48</v>
+      </c>
       <c r="H60" s="51"/>
       <c r="I60" s="51"/>
       <c r="J60" s="51"/>
@@ -2984,15 +3502,21 @@
       <c r="L60" s="52"/>
     </row>
     <row r="61" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C61" s="48"/>
-      <c r="D61" s="49"/>
+      <c r="C61" s="40">
+        <v>55</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E61" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="G61" s="51"/>
+        <v>98</v>
+      </c>
+      <c r="G61" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="H61" s="51"/>
       <c r="I61" s="51"/>
       <c r="J61" s="51"/>
@@ -3000,15 +3524,21 @@
       <c r="L61" s="52"/>
     </row>
     <row r="62" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
+      <c r="C62" s="40">
+        <v>56</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E62" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="G62" s="51"/>
+        <v>99</v>
+      </c>
+      <c r="G62" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="H62" s="51"/>
       <c r="I62" s="51"/>
       <c r="J62" s="51"/>
@@ -3016,15 +3546,21 @@
       <c r="L62" s="52"/>
     </row>
     <row r="63" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C63" s="48"/>
-      <c r="D63" s="49"/>
+      <c r="C63" s="40">
+        <v>57</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E63" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="G63" s="51"/>
+        <v>100</v>
+      </c>
+      <c r="G63" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="H63" s="51"/>
       <c r="I63" s="51"/>
       <c r="J63" s="51"/>
@@ -3032,62 +3568,86 @@
       <c r="L63" s="52"/>
     </row>
     <row r="64" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
+      <c r="C64" s="40">
+        <v>58</v>
+      </c>
+      <c r="D64" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E64" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="G64" s="51"/>
+        <v>101</v>
+      </c>
+      <c r="G64" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="H64" s="51"/>
       <c r="I64" s="51"/>
       <c r="J64" s="51"/>
       <c r="K64" s="51"/>
       <c r="L64" s="52"/>
     </row>
-    <row r="65" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C65" s="48"/>
-      <c r="D65" s="49"/>
+    <row r="65" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C65" s="40">
+        <v>59</v>
+      </c>
+      <c r="D65" s="49" t="s">
+        <v>50</v>
+      </c>
       <c r="E65" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F65" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="G65" s="51"/>
+        <v>102</v>
+      </c>
+      <c r="G65" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="H65" s="51"/>
       <c r="I65" s="51"/>
       <c r="J65" s="51"/>
       <c r="K65" s="51"/>
       <c r="L65" s="52"/>
     </row>
-    <row r="66" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
+    <row r="66" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C66" s="40">
+        <v>60</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>138</v>
+      </c>
       <c r="E66" s="49" t="s">
         <v>7</v>
       </c>
       <c r="F66" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="G66" s="51"/>
+        <v>103</v>
+      </c>
+      <c r="G66" s="51" t="s">
+        <v>46</v>
+      </c>
       <c r="H66" s="51"/>
       <c r="I66" s="51"/>
       <c r="J66" s="51"/>
       <c r="K66" s="51"/>
       <c r="L66" s="52"/>
     </row>
-    <row r="67" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C67" s="48"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
+    <row r="67" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C67" s="40">
+        <v>61</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>7</v>
+      </c>
       <c r="F67" s="50" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G67" s="51" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="H67" s="51"/>
       <c r="I67" s="51"/>
@@ -3095,55 +3655,347 @@
       <c r="K67" s="51"/>
       <c r="L67" s="52"/>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C68" s="48"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="51"/>
+    <row r="68" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C68" s="40">
+        <v>62</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="51" t="s">
+        <v>120</v>
+      </c>
       <c r="H68" s="51"/>
       <c r="I68" s="51"/>
       <c r="J68" s="51"/>
       <c r="K68" s="51"/>
       <c r="L68" s="52"/>
     </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C69" s="48"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51"/>
+    <row r="69" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C69" s="40">
+        <v>63</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="51" t="s">
+        <v>52</v>
+      </c>
       <c r="H69" s="51"/>
       <c r="I69" s="51"/>
       <c r="J69" s="51"/>
       <c r="K69" s="51"/>
       <c r="L69" s="52"/>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C70" s="41">
-        <v>14</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C71" s="44"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="46"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
+    <row r="70" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C70" s="40">
+        <v>64</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="52"/>
+    </row>
+    <row r="71" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C71" s="40">
+        <v>65</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="52"/>
+    </row>
+    <row r="72" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C72" s="40">
+        <v>66</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E72" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="51"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="52"/>
+    </row>
+    <row r="73" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C73" s="40">
+        <v>67</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="52"/>
+    </row>
+    <row r="74" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C74" s="40">
+        <v>68</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="52"/>
+    </row>
+    <row r="75" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C75" s="40">
+        <v>69</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="52"/>
+    </row>
+    <row r="76" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C76" s="40">
+        <v>70</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E76" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="G76" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="52"/>
+    </row>
+    <row r="77" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C77" s="40">
+        <v>71</v>
+      </c>
+      <c r="D77" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="52"/>
+    </row>
+    <row r="78" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C78" s="40">
+        <v>72</v>
+      </c>
+      <c r="D78" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F78" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="G78" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="H78" s="51"/>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="52"/>
+    </row>
+    <row r="79" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C79" s="48">
+        <v>73</v>
+      </c>
+      <c r="D79" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F79" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="G79" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="52"/>
+    </row>
+    <row r="80" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C80" s="48">
+        <v>74</v>
+      </c>
+      <c r="D80" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="52"/>
+    </row>
+    <row r="81" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C81" s="48">
+        <v>75</v>
+      </c>
+      <c r="D81" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E81" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="G81" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="52"/>
+    </row>
+    <row r="82" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C82" s="41">
+        <v>76</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E82" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C83" s="44"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/7_3_test_2/7_3_test.xlsx
+++ b/7_3_test_2/7_3_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/workspace/workspace-endo2/7_programming_jisyu/7_3_test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{075EAFEB-CEDD-4993-A540-33520A749FFB}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6C65F14-8108-4535-9F67-9539DB6EE56C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FAE6D0D-3917-4C5C-8A49-6F035E7C489B}"/>
   </bookViews>
@@ -1244,11 +1244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.1の手順でregist.phpを開く。
-②No5,19,27,35,41,44,51,55,63,68の順で値を入力し登録するをクリック。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①No.70の手順でregist_comfirm.phpを開く。
 ②登録するを押す。</t>
     <rPh sb="34" eb="36">
@@ -1400,6 +1395,11 @@
 regist_confirm.php,
 regist_complete.php,
 index.htm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.1の手順でregist.phpを開く。
+②No5,12,19,27,35,41,44,51,55,63,68の順で値を入力し登録するをクリック。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1905,6 +1905,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1913,12 +1919,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2236,8 +2236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE120A15-3C36-4CC9-99A1-A48CE8DCA9D0}">
   <dimension ref="C2:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2256,10 +2256,10 @@
         <v>41</v>
       </c>
       <c r="E2" s="39"/>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="53"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="39" t="s">
         <v>43</v>
       </c>
@@ -2267,8 +2267,8 @@
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D3" s="39"/>
       <c r="E3" s="42"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="39" t="s">
         <v>44</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>57</v>
@@ -2340,7 +2340,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>7</v>
@@ -2384,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="31" t="s">
         <v>7</v>
@@ -2406,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>7</v>
@@ -2494,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>7</v>
@@ -2538,7 +2538,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E17" s="49" t="s">
         <v>7</v>
@@ -2560,7 +2560,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="49" t="s">
         <v>7</v>
@@ -2648,7 +2648,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="49" t="s">
         <v>7</v>
@@ -2692,7 +2692,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="49" t="s">
         <v>7</v>
@@ -2714,7 +2714,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E25" s="49" t="s">
         <v>7</v>
@@ -2824,7 +2824,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="49" t="s">
         <v>7</v>
@@ -2868,7 +2868,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="49" t="s">
         <v>7</v>
@@ -3000,7 +3000,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E38" s="49" t="s">
         <v>7</v>
@@ -3044,7 +3044,7 @@
         <v>34</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E40" s="49" t="s">
         <v>7</v>
@@ -3066,7 +3066,7 @@
         <v>35</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E41" s="49" t="s">
         <v>7</v>
@@ -3088,7 +3088,7 @@
         <v>36</v>
       </c>
       <c r="D42" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E42" s="49" t="s">
         <v>7</v>
@@ -3132,7 +3132,7 @@
         <v>38</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="49" t="s">
         <v>7</v>
@@ -3176,7 +3176,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" s="49" t="s">
         <v>7</v>
@@ -3198,7 +3198,7 @@
         <v>41</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E47" s="49" t="s">
         <v>7</v>
@@ -3242,7 +3242,7 @@
         <v>43</v>
       </c>
       <c r="D49" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E49" s="49" t="s">
         <v>7</v>
@@ -3264,7 +3264,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E50" s="49" t="s">
         <v>7</v>
@@ -3286,7 +3286,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" s="49" t="s">
         <v>7</v>
@@ -3330,7 +3330,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E53" s="49" t="s">
         <v>7</v>
@@ -3352,7 +3352,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E54" s="49" t="s">
         <v>7</v>
@@ -3396,7 +3396,7 @@
         <v>50</v>
       </c>
       <c r="D56" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E56" s="49" t="s">
         <v>7</v>
@@ -3418,7 +3418,7 @@
         <v>51</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E57" s="49" t="s">
         <v>7</v>
@@ -3440,7 +3440,7 @@
         <v>52</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E58" s="49" t="s">
         <v>7</v>
@@ -3484,7 +3484,7 @@
         <v>54</v>
       </c>
       <c r="D60" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E60" s="49" t="s">
         <v>7</v>
@@ -3506,7 +3506,7 @@
         <v>55</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="49" t="s">
         <v>7</v>
@@ -3528,7 +3528,7 @@
         <v>56</v>
       </c>
       <c r="D62" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" s="49" t="s">
         <v>7</v>
@@ -3550,7 +3550,7 @@
         <v>57</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E63" s="49" t="s">
         <v>7</v>
@@ -3572,7 +3572,7 @@
         <v>58</v>
       </c>
       <c r="D64" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E64" s="49" t="s">
         <v>7</v>
@@ -3616,7 +3616,7 @@
         <v>60</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E66" s="49" t="s">
         <v>7</v>
@@ -3660,7 +3660,7 @@
         <v>62</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E68" s="49" t="s">
         <v>7</v>
@@ -3682,7 +3682,7 @@
         <v>63</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E69" s="49" t="s">
         <v>7</v>
@@ -3704,7 +3704,7 @@
         <v>64</v>
       </c>
       <c r="D70" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E70" s="49" t="s">
         <v>7</v>
@@ -3726,7 +3726,7 @@
         <v>65</v>
       </c>
       <c r="D71" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E71" s="49" t="s">
         <v>7</v>
@@ -3748,7 +3748,7 @@
         <v>66</v>
       </c>
       <c r="D72" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E72" s="49" t="s">
         <v>7</v>
@@ -3792,7 +3792,7 @@
         <v>68</v>
       </c>
       <c r="D74" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E74" s="49" t="s">
         <v>7</v>
@@ -3814,7 +3814,7 @@
         <v>69</v>
       </c>
       <c r="D75" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E75" s="49" t="s">
         <v>7</v>
@@ -3836,16 +3836,16 @@
         <v>70</v>
       </c>
       <c r="D76" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E76" s="56" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="F76" s="50" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G76" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H76" s="51"/>
       <c r="I76" s="51"/>
@@ -3858,13 +3858,13 @@
         <v>71</v>
       </c>
       <c r="D77" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E77" s="56" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="E77" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="F77" s="50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G77" s="51" t="s">
         <v>128</v>
@@ -3880,13 +3880,13 @@
         <v>72</v>
       </c>
       <c r="D78" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="50" t="s">
         <v>138</v>
-      </c>
-      <c r="E78" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="F78" s="50" t="s">
-        <v>139</v>
       </c>
       <c r="G78" s="51" t="s">
         <v>129</v>
@@ -3904,11 +3904,11 @@
       <c r="D79" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="56" t="s">
-        <v>143</v>
+      <c r="E79" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="F79" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G79" s="51" t="s">
         <v>49</v>
@@ -3924,13 +3924,13 @@
         <v>74</v>
       </c>
       <c r="D80" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E80" s="56" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="E80" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="F80" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G80" s="51" t="s">
         <v>130</v>
@@ -3946,13 +3946,13 @@
         <v>75</v>
       </c>
       <c r="D81" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81" s="56" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="E81" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="F81" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G81" s="51" t="s">
         <v>131</v>
@@ -3968,16 +3968,16 @@
         <v>76</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E82" s="57" t="s">
-        <v>144</v>
+        <v>137</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>143</v>
       </c>
       <c r="F82" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="H82" s="8"/>
       <c r="I82" s="8"/>

--- a/7_3_test_2/7_3_test.xlsx
+++ b/7_3_test_2/7_3_test.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/workspace/workspace-endo2/7_programming_jisyu/7_3_test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6C65F14-8108-4535-9F67-9539DB6EE56C}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC3CAACA-141C-4FA7-818F-17E069D2B1B0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8FAE6D0D-3917-4C5C-8A49-6F035E7C489B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8FAE6D0D-3917-4C5C-8A49-6F035E7C489B}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
-    <sheet name="結合テスト" sheetId="2" r:id="rId2"/>
+    <sheet name="単体テスト (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="結合テスト" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="155">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1400,6 +1401,122 @@
   <si>
     <t>①No.1の手順でregist.phpを開く。
 ②No5,12,19,27,35,41,44,51,55,63,68の順で値を入力し登録するをクリック。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前(姓)未入力です。
+と表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されてしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前(名)未入力です。
+と表示される。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されてしまう
+他の項目が全て入力されるとエラーが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されてしまう
+他の項目が全て入力されるとエラーが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されてしまう
+他の項目が全て入力されるとエラーが表示される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角入力ができない</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンカクニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されてしまう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminに入力した内容が反映されているか確認。
+③入力したパスワードはハッシュ化されて登録されているか確認。</t>
+    <rPh sb="66" eb="68">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1438,7 +1555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1739,13 +1856,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1773,9 +1923,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1902,9 +2049,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1919,6 +2063,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2236,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE120A15-3C36-4CC9-99A1-A48CE8DCA9D0}">
   <dimension ref="C2:L83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2247,206 +2463,250 @@
     <col min="6" max="6" width="55.796875" customWidth="1"/>
     <col min="7" max="7" width="38.69921875" customWidth="1"/>
     <col min="8" max="8" width="11.69921875" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" customWidth="1"/>
+    <col min="11" max="11" width="24.3984375" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="55" t="s">
+      <c r="E2" s="38"/>
+      <c r="F2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="39" t="s">
+      <c r="G2" s="53"/>
+      <c r="H2" s="38" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="D3" s="39"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="39" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="38" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <v>1</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="31" t="s">
+      <c r="D7" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="34">
+      <c r="H7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="33">
         <v>44333</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="35" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="34" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C8" s="40">
+      <c r="C8" s="39">
         <v>2</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="22" t="s">
+      <c r="D8" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="31"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="26"/>
+      <c r="H8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C9" s="40">
+      <c r="C9" s="39">
         <v>3</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="26"/>
+      <c r="H9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C10" s="40">
+      <c r="C10" s="39">
         <v>4</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="26"/>
+      <c r="H10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C11" s="40">
+      <c r="C11" s="39">
         <v>5</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="D11" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="26"/>
+      <c r="H11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C12" s="40">
+      <c r="C12" s="39">
         <v>6</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="26"/>
+      <c r="H12" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C13" s="40">
+      <c r="C13" s="39">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2455,20 +2715,30 @@
       <c r="E13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
+      <c r="H13" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C14" s="40">
+      <c r="C14" s="39">
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2477,20 +2747,30 @@
       <c r="E14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="21" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
+      <c r="H14" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C15" s="40">
+      <c r="C15" s="39">
         <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -2499,1503 +2779,2085 @@
       <c r="E15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>58</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="H15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="33">
+        <v>44370</v>
+      </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C16" s="40">
+      <c r="C16" s="39">
         <v>10</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="50" t="s">
+      <c r="E16" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="52"/>
+      <c r="H16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C17" s="40">
+      <c r="C17" s="39">
         <v>11</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="50" t="s">
+      <c r="D17" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="52"/>
+      <c r="H17" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <v>12</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="50" t="s">
+      <c r="D18" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="52"/>
+      <c r="H18" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C19" s="40">
+      <c r="C19" s="39">
         <v>13</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="50" t="s">
+      <c r="E19" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="52"/>
+      <c r="H19" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C20" s="40">
+      <c r="C20" s="39">
         <v>14</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="50" t="s">
+      <c r="E20" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="52"/>
+      <c r="H20" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C21" s="40">
+      <c r="C21" s="39">
         <v>15</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="50" t="s">
+      <c r="E21" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="52"/>
+      <c r="H21" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C22" s="40">
+      <c r="C22" s="39">
         <v>16</v>
       </c>
-      <c r="D22" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="50" t="s">
+      <c r="D22" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="51" t="s">
+      <c r="G22" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="52"/>
+      <c r="H22" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K22" s="50"/>
+      <c r="L22" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C23" s="40">
+      <c r="C23" s="39">
         <v>17</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="50" t="s">
+      <c r="E23" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="G23" s="51" t="s">
+      <c r="G23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="52"/>
+      <c r="H23" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K23" s="50"/>
+      <c r="L23" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C24" s="40">
+      <c r="C24" s="39">
         <v>18</v>
       </c>
-      <c r="D24" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="50" t="s">
+      <c r="D24" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="51" t="s">
+      <c r="G24" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="52"/>
+      <c r="H24" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K24" s="50"/>
+      <c r="L24" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C25" s="40">
+      <c r="C25" s="39">
         <v>19</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="50" t="s">
+      <c r="D25" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="52"/>
+      <c r="H25" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K25" s="50"/>
+      <c r="L25" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C26" s="40">
+      <c r="C26" s="39">
         <v>20</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="50" t="s">
+      <c r="E26" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="52"/>
+      <c r="H26" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C27" s="40">
+      <c r="C27" s="39">
         <v>21</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="50" t="s">
+      <c r="E27" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="51" t="s">
+      <c r="G27" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="52"/>
+      <c r="H27" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K27" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C28" s="40">
+      <c r="C28" s="39">
         <v>22</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="50" t="s">
+      <c r="E28" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="51" t="s">
+      <c r="G28" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="52"/>
+      <c r="H28" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C29" s="40">
+      <c r="C29" s="39">
         <v>23</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="50" t="s">
+      <c r="E29" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="52"/>
+      <c r="H29" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K29" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C30" s="40">
+      <c r="C30" s="39">
         <v>24</v>
       </c>
-      <c r="D30" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="50" t="s">
+      <c r="D30" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="G30" s="51" t="s">
+      <c r="G30" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="52"/>
+      <c r="H30" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K30" s="50"/>
+      <c r="L30" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C31" s="40">
+      <c r="C31" s="39">
         <v>25</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="50" t="s">
+      <c r="E31" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="52"/>
+      <c r="H31" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C32" s="40">
+      <c r="C32" s="39">
         <v>26</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="50" t="s">
+      <c r="D32" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="51" t="s">
+      <c r="G32" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="52"/>
+      <c r="H32" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K32" s="50"/>
+      <c r="L32" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C33" s="40">
+      <c r="C33" s="39">
         <v>27</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="50" t="s">
+      <c r="E33" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="51" t="s">
+      <c r="G33" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="52"/>
+      <c r="H33" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K33" s="50"/>
+      <c r="L33" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="34" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C34" s="40">
+      <c r="C34" s="39">
         <v>28</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="50" t="s">
+      <c r="E34" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="52"/>
+      <c r="H34" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K34" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="35" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C35" s="40">
+      <c r="C35" s="39">
         <v>29</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="50" t="s">
+      <c r="E35" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="51" t="s">
+      <c r="G35" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="52"/>
+      <c r="H35" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K35" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="36" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C36" s="40">
+      <c r="C36" s="39">
         <v>30</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="50" t="s">
+      <c r="E36" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="G36" s="51" t="s">
+      <c r="G36" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="52"/>
+      <c r="H36" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K36" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="37" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C37" s="40">
+      <c r="C37" s="39">
         <v>31</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="50" t="s">
+      <c r="E37" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="G37" s="51" t="s">
+      <c r="G37" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="52"/>
+      <c r="H37" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K37" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="38" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C38" s="40">
+      <c r="C38" s="39">
         <v>32</v>
       </c>
-      <c r="D38" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="50" t="s">
+      <c r="D38" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="G38" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="51"/>
-      <c r="L38" s="52"/>
+      <c r="H38" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K38" s="50"/>
+      <c r="L38" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="39" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C39" s="40">
+      <c r="C39" s="39">
         <v>33</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E39" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="50" t="s">
+      <c r="E39" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="G39" s="51" t="s">
+      <c r="G39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="52"/>
+      <c r="H39" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K39" s="50"/>
+      <c r="L39" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="40" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C40" s="40">
+      <c r="C40" s="39">
         <v>34</v>
       </c>
-      <c r="D40" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="50" t="s">
+      <c r="D40" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="G40" s="51" t="s">
+      <c r="G40" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="52"/>
+      <c r="H40" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K40" s="50"/>
+      <c r="L40" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="41" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C41" s="40">
+      <c r="C41" s="39">
         <v>35</v>
       </c>
-      <c r="D41" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="50" t="s">
+      <c r="D41" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="51" t="s">
+      <c r="G41" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="52"/>
+      <c r="H41" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K41" s="50"/>
+      <c r="L41" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="42" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C42" s="40">
+      <c r="C42" s="39">
         <v>36</v>
       </c>
-      <c r="D42" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="50" t="s">
+      <c r="D42" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="51" t="s">
+      <c r="G42" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="52"/>
+      <c r="H42" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K42" s="50"/>
+      <c r="L42" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="43" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C43" s="40">
+      <c r="C43" s="39">
         <v>37</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D43" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="50" t="s">
+      <c r="E43" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G43" s="51" t="s">
+      <c r="G43" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="52"/>
+      <c r="H43" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="44" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C44" s="40">
-        <v>38</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" s="50" t="s">
+      <c r="C44" s="39">
+        <v>38</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="51" t="s">
+      <c r="G44" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="52"/>
+      <c r="H44" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K44" s="50"/>
+      <c r="L44" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="45" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C45" s="40">
-        <v>39</v>
-      </c>
-      <c r="D45" s="49" t="s">
+      <c r="C45" s="39">
+        <v>39</v>
+      </c>
+      <c r="D45" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E45" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F45" s="50" t="s">
+      <c r="E45" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="G45" s="51" t="s">
+      <c r="G45" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="52"/>
+      <c r="H45" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K45" s="50"/>
+      <c r="L45" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="46" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C46" s="40">
-        <v>40</v>
-      </c>
-      <c r="D46" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" s="50" t="s">
+      <c r="C46" s="39">
+        <v>40</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G46" s="51" t="s">
+      <c r="G46" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="52"/>
+      <c r="H46" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K46" s="50"/>
+      <c r="L46" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="47" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C47" s="40">
+      <c r="C47" s="39">
         <v>41</v>
       </c>
-      <c r="D47" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="50" t="s">
+      <c r="D47" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G47" s="51" t="s">
+      <c r="G47" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
-      <c r="K47" s="51"/>
-      <c r="L47" s="52"/>
+      <c r="H47" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K47" s="50"/>
+      <c r="L47" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="48" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C48" s="40">
+      <c r="C48" s="39">
         <v>42</v>
       </c>
-      <c r="D48" s="49" t="s">
+      <c r="D48" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="50" t="s">
+      <c r="E48" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="G48" s="51" t="s">
+      <c r="G48" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="52"/>
+      <c r="H48" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K48" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="49" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C49" s="40">
+      <c r="C49" s="39">
         <v>43</v>
       </c>
-      <c r="D49" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="50" t="s">
+      <c r="D49" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="G49" s="51" t="s">
+      <c r="G49" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="52"/>
+      <c r="H49" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K49" s="50"/>
+      <c r="L49" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="50" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C50" s="40">
+      <c r="C50" s="39">
         <v>44</v>
       </c>
-      <c r="D50" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="50" t="s">
+      <c r="D50" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="G50" s="51" t="s">
+      <c r="G50" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="52"/>
+      <c r="H50" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K50" s="50"/>
+      <c r="L50" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="51" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C51" s="40">
+      <c r="C51" s="39">
         <v>45</v>
       </c>
-      <c r="D51" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="50" t="s">
+      <c r="D51" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="G51" s="51" t="s">
+      <c r="G51" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="52"/>
+      <c r="H51" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K51" s="50"/>
+      <c r="L51" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="52" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C52" s="40">
+      <c r="C52" s="39">
         <v>46</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="50" t="s">
+      <c r="E52" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="G52" s="51" t="s">
+      <c r="G52" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="51"/>
-      <c r="L52" s="52"/>
+      <c r="H52" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K52" s="50"/>
+      <c r="L52" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C53" s="40">
+      <c r="C53" s="39">
         <v>47</v>
       </c>
-      <c r="D53" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="50" t="s">
+      <c r="D53" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="G53" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="52"/>
+      <c r="H53" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K53" s="50"/>
+      <c r="L53" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="54" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C54" s="40">
+      <c r="C54" s="39">
         <v>48</v>
       </c>
-      <c r="D54" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="50" t="s">
+      <c r="D54" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="G54" s="51" t="s">
+      <c r="G54" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H54" s="51"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="51"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="52"/>
+      <c r="H54" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K54" s="50"/>
+      <c r="L54" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="55" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C55" s="40">
+      <c r="C55" s="39">
         <v>49</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E55" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="50" t="s">
+      <c r="E55" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="G55" s="51" t="s">
+      <c r="G55" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H55" s="51"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="52"/>
+      <c r="H55" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K55" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L55" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="56" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C56" s="40">
+      <c r="C56" s="39">
         <v>50</v>
       </c>
-      <c r="D56" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="50" t="s">
+      <c r="D56" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="G56" s="51" t="s">
+      <c r="G56" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H56" s="51"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="52"/>
+      <c r="H56" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K56" s="50"/>
+      <c r="L56" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="57" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C57" s="40">
+      <c r="C57" s="39">
         <v>51</v>
       </c>
-      <c r="D57" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="50" t="s">
+      <c r="D57" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="G57" s="51" t="s">
+      <c r="G57" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="52"/>
+      <c r="H57" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K57" s="50"/>
+      <c r="L57" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="58" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C58" s="40">
+      <c r="C58" s="39">
         <v>52</v>
       </c>
-      <c r="D58" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E58" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" s="50" t="s">
+      <c r="D58" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="G58" s="51" t="s">
+      <c r="G58" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H58" s="51"/>
-      <c r="I58" s="51"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="52"/>
+      <c r="H58" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K58" s="50"/>
+      <c r="L58" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="59" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C59" s="40">
+      <c r="C59" s="39">
         <v>53</v>
       </c>
-      <c r="D59" s="49" t="s">
+      <c r="D59" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E59" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" s="50" t="s">
+      <c r="E59" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="G59" s="51" t="s">
+      <c r="G59" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H59" s="51"/>
-      <c r="I59" s="51"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="52"/>
+      <c r="H59" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K59" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="60" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C60" s="40">
+      <c r="C60" s="39">
         <v>54</v>
       </c>
-      <c r="D60" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E60" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="50" t="s">
+      <c r="D60" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="G60" s="51" t="s">
+      <c r="G60" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="52"/>
+      <c r="H60" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K60" s="50"/>
+      <c r="L60" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="61" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C61" s="40">
+      <c r="C61" s="39">
         <v>55</v>
       </c>
-      <c r="D61" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" s="50" t="s">
+      <c r="D61" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G61" s="51" t="s">
+      <c r="G61" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="52"/>
+      <c r="H61" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K61" s="50"/>
+      <c r="L61" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="62" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C62" s="40">
+      <c r="C62" s="39">
         <v>56</v>
       </c>
-      <c r="D62" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" s="50" t="s">
+      <c r="D62" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="51" t="s">
+      <c r="G62" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="51"/>
-      <c r="I62" s="51"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="52"/>
+      <c r="H62" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K62" s="50"/>
+      <c r="L62" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="63" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C63" s="40">
+      <c r="C63" s="39">
         <v>57</v>
       </c>
-      <c r="D63" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="50" t="s">
+      <c r="D63" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="G63" s="51" t="s">
+      <c r="G63" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H63" s="51"/>
-      <c r="I63" s="51"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="52"/>
+      <c r="H63" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K63" s="50"/>
+      <c r="L63" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="64" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C64" s="40">
+      <c r="C64" s="39">
         <v>58</v>
       </c>
-      <c r="D64" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E64" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" s="50" t="s">
+      <c r="D64" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="G64" s="51" t="s">
+      <c r="G64" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="52"/>
+      <c r="H64" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K64" s="50"/>
+      <c r="L64" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="65" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C65" s="40">
+      <c r="C65" s="39">
         <v>59</v>
       </c>
-      <c r="D65" s="49" t="s">
+      <c r="D65" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="50" t="s">
+      <c r="E65" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="51" t="s">
+      <c r="G65" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H65" s="51"/>
-      <c r="I65" s="51"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="52"/>
+      <c r="H65" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K65" s="50"/>
+      <c r="L65" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="66" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C66" s="40">
+      <c r="C66" s="39">
         <v>60</v>
       </c>
-      <c r="D66" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" s="50" t="s">
+      <c r="D66" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="G66" s="51" t="s">
+      <c r="G66" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="H66" s="51"/>
-      <c r="I66" s="51"/>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="52"/>
+      <c r="H66" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K66" s="50"/>
+      <c r="L66" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="67" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C67" s="40">
+      <c r="C67" s="39">
         <v>61</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E67" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" s="50" t="s">
+      <c r="E67" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="G67" s="51" t="s">
+      <c r="G67" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="52"/>
+      <c r="H67" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K67" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L67" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="68" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C68" s="40">
+      <c r="C68" s="39">
         <v>62</v>
       </c>
-      <c r="D68" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" s="50" t="s">
+      <c r="D68" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="G68" s="51" t="s">
+      <c r="G68" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="52"/>
+      <c r="H68" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K68" s="50"/>
+      <c r="L68" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="69" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C69" s="40">
+      <c r="C69" s="39">
         <v>63</v>
       </c>
-      <c r="D69" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E69" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" s="50" t="s">
+      <c r="D69" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="G69" s="51" t="s">
+      <c r="G69" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="52"/>
+      <c r="H69" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K69" s="50"/>
+      <c r="L69" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="70" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C70" s="40">
+      <c r="C70" s="39">
         <v>64</v>
       </c>
-      <c r="D70" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F70" s="50" t="s">
+      <c r="D70" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="G70" s="51" t="s">
+      <c r="G70" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="52"/>
+      <c r="H70" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K70" s="50"/>
+      <c r="L70" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="71" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C71" s="40">
+      <c r="C71" s="39">
         <v>65</v>
       </c>
-      <c r="D71" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E71" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" s="50" t="s">
+      <c r="D71" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="G71" s="51" t="s">
+      <c r="G71" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="52"/>
+      <c r="H71" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J71" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K71" s="50"/>
+      <c r="L71" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="72" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C72" s="40">
+      <c r="C72" s="39">
         <v>66</v>
       </c>
-      <c r="D72" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E72" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F72" s="50" t="s">
+      <c r="D72" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="G72" s="51" t="s">
+      <c r="G72" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="52"/>
+      <c r="H72" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K72" s="50"/>
+      <c r="L72" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="73" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C73" s="40">
+      <c r="C73" s="39">
         <v>67</v>
       </c>
-      <c r="D73" s="49" t="s">
+      <c r="D73" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E73" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" s="50" t="s">
+      <c r="E73" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="G73" s="51" t="s">
+      <c r="G73" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H73" s="51"/>
-      <c r="I73" s="51"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="52"/>
+      <c r="H73" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K73" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="L73" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="74" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C74" s="40">
+      <c r="C74" s="39">
         <v>68</v>
       </c>
-      <c r="D74" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E74" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="50" t="s">
+      <c r="D74" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="G74" s="51" t="s">
+      <c r="G74" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="H74" s="51"/>
-      <c r="I74" s="51"/>
-      <c r="J74" s="51"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="52"/>
+      <c r="H74" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K74" s="50"/>
+      <c r="L74" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="75" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C75" s="40">
+      <c r="C75" s="39">
         <v>69</v>
       </c>
-      <c r="D75" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E75" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="50" t="s">
+      <c r="D75" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="G75" s="51" t="s">
+      <c r="G75" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51"/>
-      <c r="L75" s="52"/>
+      <c r="H75" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K75" s="50"/>
+      <c r="L75" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="76" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C76" s="40">
+      <c r="C76" s="39">
         <v>70</v>
       </c>
-      <c r="D76" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E76" s="53" t="s">
+      <c r="D76" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F76" s="50" t="s">
+      <c r="F76" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="G76" s="51" t="s">
+      <c r="G76" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="H76" s="51"/>
-      <c r="I76" s="51"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="52"/>
+      <c r="H76" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K76" s="50"/>
+      <c r="L76" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="77" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C77" s="40">
+      <c r="C77" s="39">
         <v>71</v>
       </c>
-      <c r="D77" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="53" t="s">
+      <c r="D77" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F77" s="50" t="s">
+      <c r="F77" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="G77" s="51" t="s">
+      <c r="G77" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="H77" s="51"/>
-      <c r="I77" s="51"/>
-      <c r="J77" s="51"/>
-      <c r="K77" s="51"/>
-      <c r="L77" s="52"/>
+      <c r="H77" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K77" s="50"/>
+      <c r="L77" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="78" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C78" s="40">
+      <c r="C78" s="39">
         <v>72</v>
       </c>
-      <c r="D78" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E78" s="53" t="s">
+      <c r="D78" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="F78" s="50" t="s">
+      <c r="F78" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="G78" s="51" t="s">
+      <c r="G78" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="52"/>
+      <c r="H78" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K78" s="50"/>
+      <c r="L78" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="79" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C79" s="48">
+      <c r="C79" s="47">
         <v>73</v>
       </c>
-      <c r="D79" s="49" t="s">
+      <c r="D79" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E79" s="53" t="s">
+      <c r="E79" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="F79" s="50" t="s">
+      <c r="F79" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="G79" s="51" t="s">
+      <c r="G79" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H79" s="51"/>
-      <c r="I79" s="51"/>
-      <c r="J79" s="51"/>
-      <c r="K79" s="51"/>
-      <c r="L79" s="52"/>
+      <c r="H79" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K79" s="50"/>
+      <c r="L79" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="80" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C80" s="48">
+      <c r="C80" s="47">
         <v>74</v>
       </c>
-      <c r="D80" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="53" t="s">
+      <c r="D80" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="F80" s="50" t="s">
+      <c r="F80" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="G80" s="51" t="s">
+      <c r="G80" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="H80" s="51"/>
-      <c r="I80" s="51"/>
-      <c r="J80" s="51"/>
-      <c r="K80" s="51"/>
-      <c r="L80" s="52"/>
+      <c r="H80" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K80" s="50"/>
+      <c r="L80" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="81" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C81" s="48">
+      <c r="C81" s="47">
         <v>75</v>
       </c>
-      <c r="D81" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="E81" s="53" t="s">
+      <c r="D81" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="F81" s="50" t="s">
+      <c r="F81" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="G81" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="52"/>
+      <c r="H81" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K81" s="50"/>
+      <c r="L81" s="34" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="82" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C82" s="41">
+      <c r="C82" s="40">
         <v>76</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E82" s="54" t="s">
+      <c r="E82" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="F82" s="43" t="s">
+      <c r="F82" s="42" t="s">
         <v>134</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
+      <c r="H82" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" s="59">
+        <v>44370</v>
+      </c>
       <c r="K82" s="8"/>
-      <c r="L82" s="9"/>
+      <c r="L82" s="61" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C83" s="44"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="45"/>
-      <c r="F83" s="46"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4009,11 +4871,2517 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70A5CC3-1CDB-4564-BDD7-CB53A5012378}">
+  <dimension ref="C2:L88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="5" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="55.796875" customWidth="1"/>
+    <col min="7" max="7" width="38.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="11" max="11" width="24.3984375" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D3" s="38"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C6" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C7" s="39">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="33">
+        <v>44333</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C8" s="39">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C9" s="39">
+        <v>3</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C10" s="39">
+        <v>4</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C11" s="39">
+        <v>5</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C12" s="39">
+        <v>6</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K12" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C13" s="39">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C14" s="39">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C15" s="39">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C16" s="39">
+        <v>10</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C17" s="39">
+        <v>11</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C18" s="39">
+        <v>12</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C19" s="39">
+        <v>13</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C20" s="39">
+        <v>14</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C21" s="39">
+        <v>15</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C22" s="39">
+        <v>16</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K22" s="50"/>
+      <c r="L22" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C23" s="39">
+        <v>17</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K23" s="50"/>
+      <c r="L23" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C24" s="39">
+        <v>18</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K24" s="50"/>
+      <c r="L24" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C25" s="39">
+        <v>19</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K25" s="50"/>
+      <c r="L25" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C26" s="39">
+        <v>20</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C27" s="39">
+        <v>21</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K27" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L27" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C28" s="39">
+        <v>22</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C29" s="39">
+        <v>23</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K29" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C30" s="39">
+        <v>24</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K30" s="50"/>
+      <c r="L30" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C31" s="39">
+        <v>25</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L31" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C32" s="39">
+        <v>26</v>
+      </c>
+      <c r="D32" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K32" s="50"/>
+      <c r="L32" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C33" s="39">
+        <v>27</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K33" s="50"/>
+      <c r="L33" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C34" s="39">
+        <v>28</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K34" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L34" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C35" s="39">
+        <v>29</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K35" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L35" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C36" s="39">
+        <v>30</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K36" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L36" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C37" s="39">
+        <v>31</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K37" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L37" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C38" s="39">
+        <v>32</v>
+      </c>
+      <c r="D38" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K38" s="50"/>
+      <c r="L38" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C39" s="39">
+        <v>33</v>
+      </c>
+      <c r="D39" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K39" s="50"/>
+      <c r="L39" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C40" s="39">
+        <v>34</v>
+      </c>
+      <c r="D40" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H40" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K40" s="50"/>
+      <c r="L40" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C41" s="39">
+        <v>35</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K41" s="50"/>
+      <c r="L41" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C42" s="39">
+        <v>36</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K42" s="50"/>
+      <c r="L42" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C43" s="39">
+        <v>37</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K43" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="L43" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C44" s="39">
+        <v>38</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K44" s="50"/>
+      <c r="L44" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C45" s="39">
+        <v>39</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K45" s="50"/>
+      <c r="L45" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C46" s="39">
+        <v>40</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K46" s="50"/>
+      <c r="L46" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C47" s="39">
+        <v>41</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K47" s="50"/>
+      <c r="L47" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C48" s="39">
+        <v>42</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K48" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="L48" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C49" s="39">
+        <v>43</v>
+      </c>
+      <c r="D49" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K49" s="50"/>
+      <c r="L49" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C50" s="39">
+        <v>44</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K50" s="50"/>
+      <c r="L50" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C51" s="39">
+        <v>45</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K51" s="50"/>
+      <c r="L51" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C52" s="39">
+        <v>46</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K52" s="50"/>
+      <c r="L52" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C53" s="39">
+        <v>47</v>
+      </c>
+      <c r="D53" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H53" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K53" s="50"/>
+      <c r="L53" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C54" s="39">
+        <v>48</v>
+      </c>
+      <c r="D54" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H54" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K54" s="50"/>
+      <c r="L54" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C55" s="39">
+        <v>49</v>
+      </c>
+      <c r="D55" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K55" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="L55" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C56" s="39">
+        <v>50</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K56" s="50"/>
+      <c r="L56" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C57" s="39">
+        <v>51</v>
+      </c>
+      <c r="D57" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K57" s="50"/>
+      <c r="L57" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C58" s="39">
+        <v>52</v>
+      </c>
+      <c r="D58" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K58" s="50"/>
+      <c r="L58" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C59" s="39">
+        <v>53</v>
+      </c>
+      <c r="D59" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K59" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L59" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C60" s="39">
+        <v>54</v>
+      </c>
+      <c r="D60" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="G60" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K60" s="50"/>
+      <c r="L60" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C61" s="39">
+        <v>55</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G61" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K61" s="50"/>
+      <c r="L61" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C62" s="39">
+        <v>56</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K62" s="50"/>
+      <c r="L62" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C63" s="39">
+        <v>57</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I63" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K63" s="50"/>
+      <c r="L63" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C64" s="39">
+        <v>58</v>
+      </c>
+      <c r="D64" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H64" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K64" s="50"/>
+      <c r="L64" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C65" s="39">
+        <v>59</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I65" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K65" s="50"/>
+      <c r="L65" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C66" s="39">
+        <v>60</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I66" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K66" s="50"/>
+      <c r="L66" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C67" s="39">
+        <v>61</v>
+      </c>
+      <c r="D67" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="G67" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K67" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="L67" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C68" s="39">
+        <v>62</v>
+      </c>
+      <c r="D68" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="G68" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I68" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K68" s="50"/>
+      <c r="L68" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C69" s="39">
+        <v>63</v>
+      </c>
+      <c r="D69" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G69" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I69" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K69" s="50"/>
+      <c r="L69" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C70" s="39">
+        <v>64</v>
+      </c>
+      <c r="D70" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I70" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K70" s="50"/>
+      <c r="L70" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C71" s="39">
+        <v>65</v>
+      </c>
+      <c r="D71" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="G71" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I71" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J71" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K71" s="50"/>
+      <c r="L71" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C72" s="39">
+        <v>66</v>
+      </c>
+      <c r="D72" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I72" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K72" s="50"/>
+      <c r="L72" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C73" s="39">
+        <v>67</v>
+      </c>
+      <c r="D73" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K73" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="L73" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C74" s="39">
+        <v>68</v>
+      </c>
+      <c r="D74" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E74" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G74" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="H74" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K74" s="50"/>
+      <c r="L74" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C75" s="39">
+        <v>69</v>
+      </c>
+      <c r="D75" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I75" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K75" s="50"/>
+      <c r="L75" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C76" s="39">
+        <v>70</v>
+      </c>
+      <c r="D76" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F76" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="G76" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I76" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K76" s="50"/>
+      <c r="L76" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C77" s="39">
+        <v>71</v>
+      </c>
+      <c r="D77" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F77" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G77" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="H77" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I77" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K77" s="50"/>
+      <c r="L77" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C78" s="39">
+        <v>72</v>
+      </c>
+      <c r="D78" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="G78" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="H78" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I78" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K78" s="50"/>
+      <c r="L78" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C79" s="47">
+        <v>73</v>
+      </c>
+      <c r="D79" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I79" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K79" s="50"/>
+      <c r="L79" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C80" s="47">
+        <v>74</v>
+      </c>
+      <c r="D80" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="G80" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="H80" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I80" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K80" s="50"/>
+      <c r="L80" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C81" s="47">
+        <v>75</v>
+      </c>
+      <c r="D81" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F81" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="H81" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="I81" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" s="33">
+        <v>44370</v>
+      </c>
+      <c r="K81" s="50"/>
+      <c r="L81" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C82" s="39">
+        <v>76</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" s="78" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I82" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" s="79">
+        <v>44370</v>
+      </c>
+      <c r="K82" s="5"/>
+      <c r="L82" s="34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C83" s="69">
+        <v>77</v>
+      </c>
+      <c r="D83" s="70"/>
+      <c r="E83" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="F83" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G83" s="73"/>
+      <c r="H83" s="74"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="76"/>
+      <c r="K83" s="73"/>
+      <c r="L83" s="77"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C84" s="47"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="68"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C85" s="47"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="68"/>
+    </row>
+    <row r="86" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C86" s="40">
+        <v>76</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H86" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="I86" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J86" s="59">
+        <v>44370</v>
+      </c>
+      <c r="K86" s="8"/>
+      <c r="L86" s="61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C87" s="43"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="64"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="65"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C88" s="43"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04991C52-F6BE-41A1-9FBA-9C947AD59A57}">
   <dimension ref="C1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4051,24 +7419,24 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -4077,40 +7445,40 @@
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="3:7" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="D8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>3</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C10" s="3">
@@ -4137,7 +7505,7 @@
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="6"/>
@@ -4158,49 +7526,49 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="23">
-        <v>7</v>
-      </c>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="22">
+        <v>7</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="26"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>8</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="26"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="27">
+      <c r="C15" s="26">
         <v>9</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/7_3_test_2/7_3_test.xlsx
+++ b/7_3_test_2/7_3_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/workspace/workspace-endo2/7_programming_jisyu/7_3_test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A60E1E6F-FA08-49D1-910A-7F1170D745C2}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6699D0E7-275D-47FA-A063-A91CE11CD336}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8FAE6D0D-3917-4C5C-8A49-6F035E7C489B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="139">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1373,6 +1373,23 @@
     </rPh>
     <rPh sb="92" eb="94">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト項目</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日：7/2</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1870,6 +1887,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1877,27 +1915,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2236,10 +2253,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
@@ -2247,8 +2264,8 @@
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="14" t="s">
         <v>18</v>
       </c>
@@ -4638,8 +4655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70A5CC3-1CDB-4564-BDD7-CB53A5012378}">
   <dimension ref="C2:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4655,13 +4672,13 @@
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D2" s="14" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="63"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
@@ -4669,10 +4686,10 @@
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="14" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.45">
@@ -6883,7 +6900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:12" s="66" customFormat="1" ht="36" x14ac:dyDescent="0.45">
+    <row r="78" spans="3:12" s="63" customFormat="1" ht="36" x14ac:dyDescent="0.45">
       <c r="C78" s="59">
         <v>72</v>
       </c>
@@ -6995,23 +7012,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="3:12" s="66" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C82" s="67">
+    <row r="82" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C82" s="64">
         <v>76</v>
       </c>
-      <c r="D82" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" s="69" t="s">
+      <c r="D82" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="F82" s="70" t="s">
+      <c r="F82" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="G82" s="71" t="s">
+      <c r="G82" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H82" s="72" t="s">
+      <c r="H82" s="69" t="s">
         <v>12</v>
       </c>
       <c r="I82" s="8" t="s">
@@ -7020,7 +7037,7 @@
       <c r="J82" s="9">
         <v>44370</v>
       </c>
-      <c r="K82" s="71"/>
+      <c r="K82" s="68"/>
       <c r="L82" s="10" t="s">
         <v>14</v>
       </c>
@@ -7055,7 +7072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="3:12" s="66" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+    <row r="84" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="C84" s="50">
         <v>78</v>
       </c>
@@ -7077,7 +7094,7 @@
       <c r="K84" s="54"/>
       <c r="L84" s="58"/>
     </row>
-    <row r="85" spans="3:12" s="66" customFormat="1" ht="108" x14ac:dyDescent="0.45">
+    <row r="85" spans="3:12" s="63" customFormat="1" ht="108" x14ac:dyDescent="0.45">
       <c r="C85" s="41">
         <v>79</v>
       </c>

--- a/7_3_test_2/7_3_test.xlsx
+++ b/7_3_test_2/7_3_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/workspace/workspace-endo2/7_programming_jisyu/7_3_test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6699D0E7-275D-47FA-A063-A91CE11CD336}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EB1649-803F-4B4B-BB5D-D8934A49F904}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8FAE6D0D-3917-4C5C-8A49-6F035E7C489B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="167">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1331,52 +1331,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.75の手順でregist_complete.phpを開く。
-②PHPMyAdminに入力した内容が反映されているか確認。</t>
-    <rPh sb="46" eb="48">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ハンエイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.75の手順でregist_complete.phpを開く。
-②TOPページへ戻るを押す。</t>
-    <rPh sb="42" eb="43">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.75の手順でregist_complete.phpを開く。
-②PHPMyAdminに入力した内容が反映されているか確認。
-③入力したパスワードはハッシュ化されて登録されているか確認。</t>
-    <rPh sb="66" eb="68">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>結合テスト項目</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -1390,6 +1344,330 @@
     <t>作成日：7/2</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③名前（姓）が入力した値で入っているかの確認。</t>
+    <rPh sb="34" eb="35">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した値で入っている。</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力した値で入っている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③名前（名）が入力した値で入っているかの確認。</t>
+    <rPh sb="62" eb="63">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③カナ（姓）が入力した値で入っているかの確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③カナ（名）が入力した値で入っているかの確認。</t>
+    <rPh sb="62" eb="63">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③メールアドレスが入力した値で入っているかの確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③パスワードが入力した値で入っているかの確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③性別が入力した値で入っているかの確認。</t>
+    <rPh sb="59" eb="61">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③郵便番号が入力した値で入っているかの確認。</t>
+    <rPh sb="59" eb="63">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③住所（都道府県）が入力した値で入っているかの確認。</t>
+    <rPh sb="59" eb="61">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③住所（市区町村）が入力した値で入っているかの確認。</t>
+    <rPh sb="59" eb="61">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③住所（番地）が入力した値で入っているかの確認。</t>
+    <rPh sb="59" eb="61">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②右クリックを押し、ページのソースを表示を押す。
+③アカウント権限が入力した値で入っているかの確認。</t>
+    <rPh sb="64" eb="66">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力した名前（姓）の値が保持されているか確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力した名前（名）の値が保持されているか確認する。</t>
+    <rPh sb="96" eb="97">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力したカナ（姓）の値が保持されているか確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力したカナ（名）の値が保持されているか確認する。</t>
+    <rPh sb="96" eb="97">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力したメールアドレスの値が保持されているか確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力したパスワードの値が保持されているか確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力した性別の値が保持されているか確認する。</t>
+    <rPh sb="93" eb="95">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力した郵便番号の値が保持されているか確認する。</t>
+    <rPh sb="93" eb="97">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力した住所（都道府県）の値が保持されているか確認する。</t>
+    <rPh sb="93" eb="95">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="96" eb="100">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力した住所（市区町村）の値が保持されているか確認する。</t>
+    <rPh sb="96" eb="100">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力した住所（番地）の値が保持されているか確認する。</t>
+    <rPh sb="96" eb="98">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.70の手順でregist_confirm.phpを開く。
+②前に戻るを押した時にregist.phpに画面偏移する。
+③右クリックを押し、ページのソースを表示を押す。
+④入力したアカウント権限の値が保持されているか確認する。</t>
+    <rPh sb="98" eb="100">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.98の手順でエラーを起こす。
+②PHPMyAdminに値が登録されていないか確認。</t>
+    <rPh sb="7" eb="9">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminに入力した内容が反映されているか確認。
+③入力したパスワードはハッシュ化されて登録されているか確認。</t>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②TOPページへ戻るを押す。</t>
+    <rPh sb="43" eb="44">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminに入力した内容が反映されているか確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録されていない。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1697,7 +1975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1916,6 +2194,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2233,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE120A15-3C36-4CC9-99A1-A48CE8DCA9D0}">
   <dimension ref="C2:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="K85" sqref="K85"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4653,10 +4934,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70A5CC3-1CDB-4564-BDD7-CB53A5012378}">
-  <dimension ref="C2:L88"/>
+  <dimension ref="C2:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4672,7 +4953,7 @@
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D2" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="70" t="s">
@@ -4684,12 +4965,12 @@
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="D3" s="14"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="17"/>
       <c r="F3" s="71"/>
       <c r="G3" s="72"/>
       <c r="H3" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.45">
@@ -6916,259 +7197,1033 @@
       <c r="G78" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="H78" s="46"/>
-      <c r="I78" s="47"/>
-      <c r="J78" s="48"/>
+      <c r="H78" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="48">
+        <v>44379</v>
+      </c>
       <c r="K78" s="45"/>
-      <c r="L78" s="49"/>
-    </row>
-    <row r="79" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C79" s="15">
+      <c r="L78" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C79" s="59">
         <v>73</v>
       </c>
-      <c r="D79" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E79" s="27" t="s">
+      <c r="D79" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="25" t="s">
+      <c r="F79" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="H79" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K79" s="45"/>
+      <c r="L79" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C80" s="59">
+        <v>74</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K80" s="45"/>
+      <c r="L80" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C81" s="59">
+        <v>75</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K81" s="45"/>
+      <c r="L81" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C82" s="59">
+        <v>76</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G82" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K82" s="45"/>
+      <c r="L82" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C83" s="59">
+        <v>77</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G83" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K83" s="45"/>
+      <c r="L83" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C84" s="59">
+        <v>78</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H84" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K84" s="45"/>
+      <c r="L84" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C85" s="59">
+        <v>79</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H85" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K85" s="45"/>
+      <c r="L85" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C86" s="59">
+        <v>80</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H86" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K86" s="45"/>
+      <c r="L86" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C87" s="59">
+        <v>81</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G87" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H87" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K87" s="45"/>
+      <c r="L87" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C88" s="59">
+        <v>82</v>
+      </c>
+      <c r="D88" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H88" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K88" s="45"/>
+      <c r="L88" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C89" s="59">
+        <v>83</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F89" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G89" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H89" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K89" s="45"/>
+      <c r="L89" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C90" s="59">
+        <v>84</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G90" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H90" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K90" s="45"/>
+      <c r="L90" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C91" s="15">
+        <v>85</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G79" s="26" t="s">
+      <c r="G91" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H79" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J79" s="9">
-        <v>44370</v>
-      </c>
-      <c r="K79" s="26"/>
-      <c r="L79" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C80" s="23">
-        <v>74</v>
-      </c>
-      <c r="D80" s="24" t="s">
+      <c r="H91" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K91" s="26"/>
+      <c r="L91" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C92" s="41">
+        <v>86</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G92" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H92" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K92" s="45"/>
+      <c r="L92" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C93" s="41">
+        <v>87</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G93" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H93" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K93" s="45"/>
+      <c r="L93" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C94" s="41">
+        <v>88</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K94" s="45"/>
+      <c r="L94" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C95" s="41">
+        <v>89</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F95" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G95" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K95" s="45"/>
+      <c r="L95" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C96" s="41">
+        <v>90</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F96" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="G96" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H96" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K96" s="45"/>
+      <c r="L96" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C97" s="41">
+        <v>91</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H97" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K97" s="45"/>
+      <c r="L97" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C98" s="41">
+        <v>92</v>
+      </c>
+      <c r="D98" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="G98" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H98" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K98" s="45"/>
+      <c r="L98" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C99" s="41">
+        <v>93</v>
+      </c>
+      <c r="D99" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F99" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H99" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K99" s="45"/>
+      <c r="L99" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C100" s="41">
+        <v>94</v>
+      </c>
+      <c r="D100" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F100" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H100" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K100" s="45"/>
+      <c r="L100" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C101" s="41">
+        <v>95</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G101" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H101" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K101" s="45"/>
+      <c r="L101" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C102" s="41">
+        <v>96</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H102" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K102" s="45"/>
+      <c r="L102" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C103" s="41">
+        <v>97</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="G103" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H103" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K103" s="45"/>
+      <c r="L103" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C104" s="23">
+        <v>98</v>
+      </c>
+      <c r="D104" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="27" t="s">
+      <c r="E104" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F80" s="25" t="s">
+      <c r="F104" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="G80" s="26" t="s">
+      <c r="G104" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H80" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J80" s="9">
-        <v>44370</v>
-      </c>
-      <c r="K80" s="26"/>
-      <c r="L80" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C81" s="23">
-        <v>75</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" s="27" t="s">
+      <c r="H104" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K104" s="26"/>
+      <c r="L104" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C105" s="41">
+        <v>99</v>
+      </c>
+      <c r="D105" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F81" s="25" t="s">
+      <c r="F105" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="G105" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H105" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K105" s="45"/>
+      <c r="L105" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C106" s="23">
+        <v>100</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F106" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G81" s="26" t="s">
+      <c r="G106" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="H81" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" s="9">
-        <v>44370</v>
-      </c>
-      <c r="K81" s="26"/>
-      <c r="L81" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C82" s="64">
-        <v>76</v>
-      </c>
-      <c r="D82" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" s="66" t="s">
+      <c r="H106" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K106" s="26"/>
+      <c r="L106" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C107" s="64">
+        <v>101</v>
+      </c>
+      <c r="D107" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="F82" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="G82" s="68" t="s">
+      <c r="F107" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="G107" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="H82" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="9">
-        <v>44370</v>
-      </c>
-      <c r="K82" s="68"/>
-      <c r="L82" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C83" s="15">
-        <v>77</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="39" t="s">
+      <c r="H107" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K107" s="68"/>
+      <c r="L107" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C108" s="15">
+        <v>102</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G83" s="2" t="s">
+      <c r="F108" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J83" s="40">
-        <v>44370</v>
-      </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C84" s="50">
-        <v>78</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" s="52" t="s">
+      <c r="H108" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" s="40">
+        <v>44370</v>
+      </c>
+      <c r="K108" s="2"/>
+      <c r="L108" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C109" s="50">
+        <v>103</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="F84" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="G84" s="54" t="s">
+      <c r="F109" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="G109" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="H84" s="55"/>
-      <c r="I84" s="56"/>
-      <c r="J84" s="57"/>
-      <c r="K84" s="54"/>
-      <c r="L84" s="58"/>
-    </row>
-    <row r="85" spans="3:12" s="63" customFormat="1" ht="108" x14ac:dyDescent="0.45">
-      <c r="C85" s="41">
-        <v>79</v>
-      </c>
-      <c r="D85" s="42" t="s">
+      <c r="H109" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="57">
+        <v>44379</v>
+      </c>
+      <c r="K109" s="54"/>
+      <c r="L109" s="58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" s="63" customFormat="1" ht="108" x14ac:dyDescent="0.45">
+      <c r="C110" s="41">
+        <v>104</v>
+      </c>
+      <c r="D110" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="E85" s="43" t="s">
+      <c r="E110" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="F85" s="44" t="s">
+      <c r="F110" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="G85" s="45" t="s">
+      <c r="G110" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="H85" s="46"/>
-      <c r="I85" s="60"/>
-      <c r="J85" s="61"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="62"/>
-    </row>
-    <row r="86" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C86" s="16">
-        <v>80</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" s="28" t="s">
+      <c r="H110" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="61">
+        <v>44379</v>
+      </c>
+      <c r="K110" s="45"/>
+      <c r="L110" s="62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C111" s="16">
+        <v>105</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F86" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G86" s="4" t="s">
+      <c r="F111" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G111" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H86" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J86" s="32">
-        <v>44370</v>
-      </c>
-      <c r="K86" s="4"/>
-      <c r="L86" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="38"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-      <c r="I88" s="22"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
+      <c r="H111" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="32">
+        <v>44370</v>
+      </c>
+      <c r="K111" s="4"/>
+      <c r="L111" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C112" s="19"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="38"/>
+    </row>
+    <row r="113" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C113" s="19"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/7_3_test_2/7_3_test.xlsx
+++ b/7_3_test_2/7_3_test.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/workspace/workspace-endo2/7_programming_jisyu/7_3_test_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/研修/テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92EB1649-803F-4B4B-BB5D-D8934A49F904}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209FA275-5A87-4D09-A1B5-BB83CB4044A6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8FAE6D0D-3917-4C5C-8A49-6F035E7C489B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8FAE6D0D-3917-4C5C-8A49-6F035E7C489B}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
     <sheet name="結合テスト" sheetId="3" r:id="rId2"/>
+    <sheet name="アカウント一覧" sheetId="6" r:id="rId3"/>
+    <sheet name="単体テスト２" sheetId="5" r:id="rId4"/>
+    <sheet name="結合テスト 2" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="217">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1671,12 +1674,692 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>index.htm,list.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①index.htmを開く。
+②D.I.BLOGのナビゲーションバーのアカウント一覧をクリック。</t>
+    <rPh sb="11" eb="12">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面偏移</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンヘンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regist.php,
+regist_confirm.php,
+regist_complete.php,
+index.htm,list.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.77の手順でlist.phpを開く。
+④IDがPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="7" eb="9">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③IDが登録した内容に自動採取されているか確認。</t>
+    <rPh sb="7" eb="9">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="67" eb="71">
+      <t>ジドウサイシュ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動採取される。</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウサイシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録した内容が表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.77の手順でlist.phpを開く。
+④名前（姓）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="80" eb="82">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.77の手順でlist.phpを開く。
+④名前（名）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="83" eb="84">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.79の手順でlist.phpを開く。
+②IDが降順で表示されているか確認。</t>
+    <rPh sb="27" eb="29">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降順で表示されている。</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.77の手順でlist.phpを開く。
+④カナ（姓）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="83" eb="84">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.77の手順でlist.phpを開く。
+④カナ（名）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="83" eb="84">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.77の手順でlist.phpを開く。
+④メールアドレスがPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.77の手順でlist.phpを開く。
+④性別がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="80" eb="82">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.77の手順でlist.phpを開く。
+④アカウント権限がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="85" eb="87">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③登録日時が登録した内容に自動採取されているか確認。</t>
+    <rPh sb="57" eb="61">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③更新日時が登録した内容に自動採取されているか確認。</t>
+    <rPh sb="57" eb="59">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③IDが登録した内容に自動採取されているか確認。</t>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>ジドウサイシュ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④IDがPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.108の手順でlist.phpを開く。
+②IDが降順で表示されているか確認。</t>
+    <rPh sb="28" eb="30">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④名前（姓）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="82" eb="84">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④名前（名）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="85" eb="86">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④カナ（姓）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="85" eb="86">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④カナ（名）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="85" eb="86">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④メールアドレスがPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④性別がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="82" eb="84">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④アカウント権限がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="87" eb="89">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③登録日時が登録した内容に自動採取されているか確認。</t>
+    <rPh sb="58" eb="62">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③更新日時が登録した内容に自動採取されているか確認。</t>
+    <rPh sb="58" eb="60">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤名前（姓）が入力した値で入っているか確認する。</t>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤名前（名）が入力した値で入っているか確認する。</t>
+    <rPh sb="109" eb="110">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤カナ（姓）が入力した値で入っているか確認する。</t>
+    <rPh sb="109" eb="110">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤カナ（名）が入力した値で入っているか確認する。</t>
+    <rPh sb="109" eb="110">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤メールアドレスが入力した値で入っているか確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤性別が選択した値で入っているか確認する。</t>
+    <rPh sb="106" eb="108">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤アカウント権限が選択した値で入っているか確認する。</t>
+    <rPh sb="111" eb="113">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録された時間で入っている。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤IDが登録された値で入っているか確認する。</t>
+    <rPh sb="109" eb="111">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録された値で入っている。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム名：index.htm,regist.php,regist_comfirm.php,regist_complete.php,list.php</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.77の手順でlist.phpを開く。
+④更新日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
+    <rPh sb="80" eb="82">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="114" eb="117">
+      <t>ネンツキヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.76の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.77の手順でlist.phpを開く。
+④登録日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
+    <rPh sb="80" eb="84">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④更新日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
+    <rPh sb="82" eb="84">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④登録日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
+    <rPh sb="82" eb="86">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤更新日時が登録された日時で入っているか確認する（年月日のみ）。</t>
+    <rPh sb="106" eb="108">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.105の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.106の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤登録日時が登録された日時で入っているか確認する（年月日のみ）。</t>
+    <rPh sb="106" eb="110">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPMyAdminでは数字での表示だったが、
+list.phpではアカウント登録にて選択した内容が表示された。</t>
+    <rPh sb="12" eb="14">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPMyAdminでは数字での表示だったが、
+list.phpではアカウント登録にて選択した内容が表示された。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1692,8 +2375,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1709,6 +2400,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,7 +2684,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2186,6 +2895,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2195,8 +2943,119 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2514,8 +3373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE120A15-3C36-4CC9-99A1-A48CE8DCA9D0}">
   <dimension ref="C2:L83"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2534,10 +3393,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="70"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
@@ -2545,8 +3404,8 @@
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="14" t="s">
         <v>18</v>
       </c>
@@ -4936,8 +5795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70A5CC3-1CDB-4564-BDD7-CB53A5012378}">
   <dimension ref="C2:L113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4956,19 +5815,19 @@
         <v>134</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="70"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="D3" s="73"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="72"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="14" t="s">
         <v>135</v>
       </c>
@@ -8234,4 +9093,6932 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2921B605-4217-42D8-B513-A20AD0C59B86}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE3DB6B-39D4-4EA0-88A5-A2FB6A7CCD39}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="C2:L97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="5" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="55.796875" customWidth="1"/>
+    <col min="7" max="7" width="38.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.3984375" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="83"/>
+      <c r="H2" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D3" s="14"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="9">
+        <v>44333</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C10" s="15">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C12" s="15">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C13" s="15">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C14" s="15">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C15" s="15">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C16" s="15">
+        <v>10</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C18" s="15">
+        <v>12</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C19" s="15">
+        <v>13</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C20" s="15">
+        <v>14</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C21" s="15">
+        <v>15</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C22" s="15">
+        <v>16</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K22" s="26"/>
+      <c r="L22" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C23" s="15">
+        <v>17</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="L23" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C24" s="15">
+        <v>18</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C25" s="15">
+        <v>19</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C26" s="15">
+        <v>20</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C27" s="15">
+        <v>21</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C28" s="15">
+        <v>22</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C29" s="15">
+        <v>23</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C30" s="15">
+        <v>24</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C31" s="15">
+        <v>25</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C32" s="15">
+        <v>26</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C33" s="15">
+        <v>27</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C34" s="15">
+        <v>28</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C35" s="15">
+        <v>29</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C36" s="15">
+        <v>30</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C37" s="15">
+        <v>31</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C38" s="15">
+        <v>32</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C39" s="15">
+        <v>33</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K39" s="26"/>
+      <c r="L39" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C40" s="15">
+        <v>34</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K40" s="26"/>
+      <c r="L40" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C41" s="15">
+        <v>35</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K41" s="26"/>
+      <c r="L41" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C42" s="15">
+        <v>36</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K42" s="26"/>
+      <c r="L42" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C43" s="15">
+        <v>37</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C44" s="15">
+        <v>38</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K44" s="26"/>
+      <c r="L44" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C45" s="15">
+        <v>39</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K45" s="26"/>
+      <c r="L45" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C46" s="15">
+        <v>40</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K46" s="26"/>
+      <c r="L46" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C47" s="15">
+        <v>41</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K47" s="26"/>
+      <c r="L47" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C48" s="15">
+        <v>42</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C49" s="15">
+        <v>43</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K49" s="26"/>
+      <c r="L49" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C50" s="15">
+        <v>44</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K50" s="26"/>
+      <c r="L50" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C51" s="15">
+        <v>45</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K51" s="26"/>
+      <c r="L51" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C52" s="15">
+        <v>46</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K52" s="26"/>
+      <c r="L52" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C53" s="15">
+        <v>47</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K53" s="26"/>
+      <c r="L53" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C54" s="15">
+        <v>48</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K54" s="26"/>
+      <c r="L54" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C55" s="15">
+        <v>49</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C56" s="15">
+        <v>50</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K56" s="26"/>
+      <c r="L56" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C57" s="15">
+        <v>51</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K57" s="26"/>
+      <c r="L57" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C58" s="15">
+        <v>52</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K58" s="26"/>
+      <c r="L58" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C59" s="15">
+        <v>53</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C60" s="15">
+        <v>54</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K60" s="26"/>
+      <c r="L60" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C61" s="15">
+        <v>55</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K61" s="26"/>
+      <c r="L61" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C62" s="15">
+        <v>56</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K62" s="26"/>
+      <c r="L62" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C63" s="15">
+        <v>57</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K63" s="26"/>
+      <c r="L63" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C64" s="15">
+        <v>58</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K64" s="26"/>
+      <c r="L64" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C65" s="15">
+        <v>59</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K65" s="26"/>
+      <c r="L65" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C66" s="15">
+        <v>60</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K66" s="26"/>
+      <c r="L66" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C67" s="15">
+        <v>61</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C68" s="15">
+        <v>62</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K68" s="26"/>
+      <c r="L68" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C69" s="15">
+        <v>63</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K69" s="26"/>
+      <c r="L69" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C70" s="15">
+        <v>64</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K70" s="26"/>
+      <c r="L70" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C71" s="15">
+        <v>65</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K71" s="26"/>
+      <c r="L71" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C72" s="15">
+        <v>66</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K72" s="26"/>
+      <c r="L72" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C73" s="15">
+        <v>67</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K73" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C74" s="15">
+        <v>68</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K74" s="26"/>
+      <c r="L74" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C75" s="15">
+        <v>69</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K75" s="26"/>
+      <c r="L75" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C76" s="15">
+        <v>70</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K76" s="26"/>
+      <c r="L76" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C77" s="15">
+        <v>71</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K77" s="26"/>
+      <c r="L77" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C78" s="15">
+        <v>72</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H78" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K78" s="26"/>
+      <c r="L78" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C79" s="23">
+        <v>73</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F79" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H79" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K79" s="26"/>
+      <c r="L79" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C80" s="23">
+        <v>74</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K80" s="26"/>
+      <c r="L80" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C81" s="23">
+        <v>75</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K81" s="26"/>
+      <c r="L81" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C82" s="23">
+        <v>76</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="72">
+        <v>44370</v>
+      </c>
+      <c r="K82" s="26"/>
+      <c r="L82" s="73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C83" s="96">
+        <v>77</v>
+      </c>
+      <c r="D83" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="E83" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="F83" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="G83" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="H83" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="109">
+        <v>44397</v>
+      </c>
+      <c r="K83" s="99"/>
+      <c r="L83" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C84" s="96">
+        <v>78</v>
+      </c>
+      <c r="D84" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="G84" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="H84" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="109">
+        <v>44397</v>
+      </c>
+      <c r="K84" s="99"/>
+      <c r="L84" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C85" s="96">
+        <v>79</v>
+      </c>
+      <c r="D85" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F85" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="H85" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="110">
+        <v>44397</v>
+      </c>
+      <c r="K85" s="101"/>
+      <c r="L85" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C86" s="96">
+        <v>80</v>
+      </c>
+      <c r="D86" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="G86" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="H86" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="110">
+        <v>44397</v>
+      </c>
+      <c r="K86" s="101"/>
+      <c r="L86" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C87" s="96">
+        <v>81</v>
+      </c>
+      <c r="D87" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="G87" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="H87" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="110">
+        <v>44397</v>
+      </c>
+      <c r="K87" s="101"/>
+      <c r="L87" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C88" s="96">
+        <v>82</v>
+      </c>
+      <c r="D88" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F88" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="G88" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="H88" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="110">
+        <v>44397</v>
+      </c>
+      <c r="K88" s="101"/>
+      <c r="L88" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C89" s="96">
+        <v>83</v>
+      </c>
+      <c r="D89" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="G89" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="H89" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="110">
+        <v>44397</v>
+      </c>
+      <c r="K89" s="101"/>
+      <c r="L89" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C90" s="96">
+        <v>84</v>
+      </c>
+      <c r="D90" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" s="98" t="s">
+        <v>180</v>
+      </c>
+      <c r="G90" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="H90" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="111">
+        <v>44397</v>
+      </c>
+      <c r="K90" s="101"/>
+      <c r="L90" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C91" s="96">
+        <v>85</v>
+      </c>
+      <c r="D91" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="G91" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="H91" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="111">
+        <v>44397</v>
+      </c>
+      <c r="K91" s="101"/>
+      <c r="L91" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C92" s="96">
+        <v>86</v>
+      </c>
+      <c r="D92" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="G92" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="H92" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="111">
+        <v>44397</v>
+      </c>
+      <c r="K92" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="L92" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C93" s="96">
+        <v>87</v>
+      </c>
+      <c r="D93" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="G93" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="H93" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="111">
+        <v>44397</v>
+      </c>
+      <c r="K93" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="L93" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C94" s="96">
+        <v>88</v>
+      </c>
+      <c r="D94" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="G94" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="H94" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="111">
+        <v>44397</v>
+      </c>
+      <c r="K94" s="101"/>
+      <c r="L94" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C95" s="96">
+        <v>89</v>
+      </c>
+      <c r="D95" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="G95" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="H95" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="111">
+        <v>44397</v>
+      </c>
+      <c r="K95" s="101"/>
+      <c r="L95" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C96" s="96">
+        <v>90</v>
+      </c>
+      <c r="D96" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F96" s="98" t="s">
+        <v>185</v>
+      </c>
+      <c r="G96" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="H96" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="111">
+        <v>44397</v>
+      </c>
+      <c r="K96" s="101"/>
+      <c r="L96" s="113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C97" s="102">
+        <v>91</v>
+      </c>
+      <c r="D97" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" s="104" t="s">
+        <v>209</v>
+      </c>
+      <c r="G97" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H97" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="112">
+        <v>44397</v>
+      </c>
+      <c r="K97" s="106"/>
+      <c r="L97" s="114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9520649B-ECD6-4998-B3A0-4DF91DD236B7}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="C2:L136"/>
+  <sheetViews>
+    <sheetView topLeftCell="E124" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+    <col min="4" max="5" width="19.59765625" customWidth="1"/>
+    <col min="6" max="6" width="59.09765625" customWidth="1"/>
+    <col min="7" max="7" width="38.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.3984375" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D2" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="83"/>
+      <c r="H2" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D3" s="70"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="9">
+        <v>44333</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C10" s="15">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C12" s="15">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C13" s="15">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C14" s="15">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C15" s="15">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C16" s="15">
+        <v>10</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C17" s="15">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C18" s="15">
+        <v>12</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C19" s="15">
+        <v>13</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C20" s="15">
+        <v>14</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C21" s="15">
+        <v>15</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C22" s="15">
+        <v>16</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K22" s="26"/>
+      <c r="L22" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C23" s="15">
+        <v>17</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="L23" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C24" s="15">
+        <v>18</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C25" s="15">
+        <v>19</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C26" s="15">
+        <v>20</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C27" s="15">
+        <v>21</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C28" s="15">
+        <v>22</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C29" s="15">
+        <v>23</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C30" s="15">
+        <v>24</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K30" s="26"/>
+      <c r="L30" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C31" s="15">
+        <v>25</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C32" s="15">
+        <v>26</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C33" s="15">
+        <v>27</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C34" s="15">
+        <v>28</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C35" s="15">
+        <v>29</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C36" s="15">
+        <v>30</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C37" s="15">
+        <v>31</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C38" s="15">
+        <v>32</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K38" s="26"/>
+      <c r="L38" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C39" s="15">
+        <v>33</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G39" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K39" s="26"/>
+      <c r="L39" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C40" s="15">
+        <v>34</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K40" s="26"/>
+      <c r="L40" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C41" s="15">
+        <v>35</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K41" s="26"/>
+      <c r="L41" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C42" s="15">
+        <v>36</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K42" s="26"/>
+      <c r="L42" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C43" s="15">
+        <v>37</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K43" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C44" s="15">
+        <v>38</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K44" s="26"/>
+      <c r="L44" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C45" s="15">
+        <v>39</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K45" s="26"/>
+      <c r="L45" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C46" s="15">
+        <v>40</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K46" s="26"/>
+      <c r="L46" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C47" s="15">
+        <v>41</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K47" s="26"/>
+      <c r="L47" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C48" s="15">
+        <v>42</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K48" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C49" s="15">
+        <v>43</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K49" s="26"/>
+      <c r="L49" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C50" s="15">
+        <v>44</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K50" s="26"/>
+      <c r="L50" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C51" s="15">
+        <v>45</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K51" s="26"/>
+      <c r="L51" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C52" s="15">
+        <v>46</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K52" s="26"/>
+      <c r="L52" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C53" s="15">
+        <v>47</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K53" s="26"/>
+      <c r="L53" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C54" s="15">
+        <v>48</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K54" s="26"/>
+      <c r="L54" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C55" s="15">
+        <v>49</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C56" s="15">
+        <v>50</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K56" s="26"/>
+      <c r="L56" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C57" s="15">
+        <v>51</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K57" s="26"/>
+      <c r="L57" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C58" s="15">
+        <v>52</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K58" s="26"/>
+      <c r="L58" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C59" s="15">
+        <v>53</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K59" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C60" s="15">
+        <v>54</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K60" s="26"/>
+      <c r="L60" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C61" s="15">
+        <v>55</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K61" s="26"/>
+      <c r="L61" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C62" s="15">
+        <v>56</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K62" s="26"/>
+      <c r="L62" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C63" s="15">
+        <v>57</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K63" s="26"/>
+      <c r="L63" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C64" s="15">
+        <v>58</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K64" s="26"/>
+      <c r="L64" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C65" s="15">
+        <v>59</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H65" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K65" s="26"/>
+      <c r="L65" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C66" s="15">
+        <v>60</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K66" s="26"/>
+      <c r="L66" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C67" s="15">
+        <v>61</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J67" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="L67" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C68" s="15">
+        <v>62</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K68" s="26"/>
+      <c r="L68" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C69" s="15">
+        <v>63</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J69" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K69" s="26"/>
+      <c r="L69" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C70" s="15">
+        <v>64</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K70" s="26"/>
+      <c r="L70" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C71" s="15">
+        <v>65</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J71" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K71" s="26"/>
+      <c r="L71" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C72" s="15">
+        <v>66</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K72" s="26"/>
+      <c r="L72" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C73" s="15">
+        <v>67</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K73" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C74" s="15">
+        <v>68</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K74" s="26"/>
+      <c r="L74" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C75" s="15">
+        <v>69</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G75" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K75" s="26"/>
+      <c r="L75" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C76" s="15">
+        <v>70</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K76" s="26"/>
+      <c r="L76" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C77" s="15">
+        <v>71</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K77" s="26"/>
+      <c r="L77" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" s="63" customFormat="1" ht="36" x14ac:dyDescent="0.45">
+      <c r="C78" s="59">
+        <v>72</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="G78" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="H78" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K78" s="45"/>
+      <c r="L78" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C79" s="59">
+        <v>73</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G79" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="H79" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K79" s="45"/>
+      <c r="L79" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C80" s="59">
+        <v>74</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="G80" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K80" s="45"/>
+      <c r="L80" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C81" s="59">
+        <v>75</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K81" s="45"/>
+      <c r="L81" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C82" s="59">
+        <v>76</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G82" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K82" s="45"/>
+      <c r="L82" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C83" s="59">
+        <v>77</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F83" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="G83" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H83" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K83" s="45"/>
+      <c r="L83" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C84" s="59">
+        <v>78</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H84" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K84" s="45"/>
+      <c r="L84" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C85" s="59">
+        <v>79</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="G85" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H85" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K85" s="45"/>
+      <c r="L85" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C86" s="59">
+        <v>80</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F86" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="G86" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H86" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K86" s="45"/>
+      <c r="L86" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C87" s="59">
+        <v>81</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="G87" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H87" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K87" s="45"/>
+      <c r="L87" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C88" s="59">
+        <v>82</v>
+      </c>
+      <c r="D88" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="G88" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H88" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K88" s="45"/>
+      <c r="L88" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C89" s="59">
+        <v>83</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F89" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G89" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H89" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K89" s="45"/>
+      <c r="L89" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C90" s="59">
+        <v>84</v>
+      </c>
+      <c r="D90" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G90" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H90" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K90" s="45"/>
+      <c r="L90" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C91" s="15">
+        <v>85</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K91" s="26"/>
+      <c r="L91" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C92" s="41">
+        <v>86</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G92" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H92" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K92" s="45"/>
+      <c r="L92" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C93" s="41">
+        <v>87</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G93" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H93" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K93" s="45"/>
+      <c r="L93" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C94" s="41">
+        <v>88</v>
+      </c>
+      <c r="D94" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H94" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K94" s="45"/>
+      <c r="L94" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C95" s="41">
+        <v>89</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F95" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="G95" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H95" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K95" s="45"/>
+      <c r="L95" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C96" s="41">
+        <v>90</v>
+      </c>
+      <c r="D96" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F96" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="G96" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H96" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K96" s="45"/>
+      <c r="L96" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C97" s="41">
+        <v>91</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F97" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="G97" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H97" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K97" s="45"/>
+      <c r="L97" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C98" s="41">
+        <v>92</v>
+      </c>
+      <c r="D98" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="G98" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H98" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K98" s="45"/>
+      <c r="L98" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C99" s="41">
+        <v>93</v>
+      </c>
+      <c r="D99" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F99" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="G99" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H99" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K99" s="45"/>
+      <c r="L99" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C100" s="41">
+        <v>94</v>
+      </c>
+      <c r="D100" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F100" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H100" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K100" s="45"/>
+      <c r="L100" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C101" s="41">
+        <v>95</v>
+      </c>
+      <c r="D101" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G101" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H101" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K101" s="45"/>
+      <c r="L101" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C102" s="41">
+        <v>96</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="G102" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H102" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K102" s="45"/>
+      <c r="L102" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C103" s="41">
+        <v>97</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="G103" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="H103" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K103" s="45"/>
+      <c r="L103" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C104" s="23">
+        <v>98</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="G104" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K104" s="26"/>
+      <c r="L104" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C105" s="41">
+        <v>99</v>
+      </c>
+      <c r="D105" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F105" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="G105" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H105" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="48">
+        <v>44379</v>
+      </c>
+      <c r="K105" s="45"/>
+      <c r="L105" s="49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C106" s="23">
+        <v>100</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E106" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F106" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G106" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H106" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K106" s="26"/>
+      <c r="L106" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C107" s="64">
+        <v>101</v>
+      </c>
+      <c r="D107" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="G107" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="H107" s="69" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="9">
+        <v>44370</v>
+      </c>
+      <c r="K107" s="68"/>
+      <c r="L107" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C108" s="15">
+        <v>102</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" s="40">
+        <v>44370</v>
+      </c>
+      <c r="K108" s="2"/>
+      <c r="L108" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C109" s="50">
+        <v>103</v>
+      </c>
+      <c r="D109" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="F109" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="G109" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="H109" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="57">
+        <v>44379</v>
+      </c>
+      <c r="K109" s="54"/>
+      <c r="L109" s="58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" s="63" customFormat="1" ht="108" x14ac:dyDescent="0.45">
+      <c r="C110" s="41">
+        <v>104</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F110" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G110" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="H110" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="61">
+        <v>44379</v>
+      </c>
+      <c r="K110" s="45"/>
+      <c r="L110" s="62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C111" s="23">
+        <v>105</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="72">
+        <v>44370</v>
+      </c>
+      <c r="K111" s="26"/>
+      <c r="L111" s="73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C112" s="74">
+        <v>106</v>
+      </c>
+      <c r="D112" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="E112" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="F112" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="G112" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H112" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="80">
+        <v>44397</v>
+      </c>
+      <c r="K112" s="77"/>
+      <c r="L112" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C113" s="74">
+        <v>107</v>
+      </c>
+      <c r="D113" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="G113" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="H113" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" s="117">
+        <v>44397</v>
+      </c>
+      <c r="K113" s="77"/>
+      <c r="L113" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C114" s="74">
+        <v>108</v>
+      </c>
+      <c r="D114" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F114" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="G114" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="H114" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K114" s="79"/>
+      <c r="L114" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C115" s="74">
+        <v>109</v>
+      </c>
+      <c r="D115" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F115" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="G115" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="H115" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K115" s="79"/>
+      <c r="L115" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C116" s="74">
+        <v>110</v>
+      </c>
+      <c r="D116" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F116" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="G116" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="H116" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K116" s="79"/>
+      <c r="L116" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C117" s="74">
+        <v>111</v>
+      </c>
+      <c r="D117" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F117" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="G117" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="H117" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K117" s="79"/>
+      <c r="L117" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C118" s="74">
+        <v>112</v>
+      </c>
+      <c r="D118" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F118" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="G118" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="H118" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K118" s="79"/>
+      <c r="L118" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C119" s="74">
+        <v>113</v>
+      </c>
+      <c r="D119" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F119" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="G119" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="H119" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K119" s="79"/>
+      <c r="L119" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C120" s="74">
+        <v>114</v>
+      </c>
+      <c r="D120" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F120" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="G120" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="H120" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K120" s="79"/>
+      <c r="L120" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C121" s="74">
+        <v>115</v>
+      </c>
+      <c r="D121" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F121" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="G121" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="H121" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K121" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="L121" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C122" s="74">
+        <v>116</v>
+      </c>
+      <c r="D122" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F122" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="G122" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="H122" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K122" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="L122" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C123" s="74">
+        <v>117</v>
+      </c>
+      <c r="D123" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F123" s="76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G123" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="H123" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K123" s="79"/>
+      <c r="L123" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C124" s="74">
+        <v>118</v>
+      </c>
+      <c r="D124" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F124" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="G124" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="H124" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I124" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K124" s="79"/>
+      <c r="L124" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C125" s="74">
+        <v>119</v>
+      </c>
+      <c r="D125" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F125" s="76" t="s">
+        <v>197</v>
+      </c>
+      <c r="G125" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="H125" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K125" s="79"/>
+      <c r="L125" s="81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C126" s="74">
+        <v>120</v>
+      </c>
+      <c r="D126" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F126" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="G126" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="H126" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="118">
+        <v>44397</v>
+      </c>
+      <c r="K126" s="79"/>
+      <c r="L126" s="121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C127" s="86">
+        <v>121</v>
+      </c>
+      <c r="D127" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E127" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F127" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="G127" s="89" t="s">
+        <v>207</v>
+      </c>
+      <c r="H127" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="119">
+        <v>44397</v>
+      </c>
+      <c r="K127" s="90"/>
+      <c r="L127" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C128" s="86">
+        <v>122</v>
+      </c>
+      <c r="D128" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E128" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F128" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="G128" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="H128" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="119">
+        <v>44397</v>
+      </c>
+      <c r="K128" s="90"/>
+      <c r="L128" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C129" s="86">
+        <v>123</v>
+      </c>
+      <c r="D129" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E129" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F129" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="G129" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H129" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J129" s="119">
+        <v>44397</v>
+      </c>
+      <c r="K129" s="90"/>
+      <c r="L129" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C130" s="86">
+        <v>124</v>
+      </c>
+      <c r="D130" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E130" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F130" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="G130" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H130" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" s="119">
+        <v>44397</v>
+      </c>
+      <c r="K130" s="90"/>
+      <c r="L130" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C131" s="86">
+        <v>125</v>
+      </c>
+      <c r="D131" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E131" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F131" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="G131" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H131" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" s="119">
+        <v>44397</v>
+      </c>
+      <c r="K131" s="90"/>
+      <c r="L131" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C132" s="86">
+        <v>126</v>
+      </c>
+      <c r="D132" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E132" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F132" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="G132" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H132" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" s="119">
+        <v>44397</v>
+      </c>
+      <c r="K132" s="90"/>
+      <c r="L132" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C133" s="86">
+        <v>127</v>
+      </c>
+      <c r="D133" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E133" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F133" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="G133" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H133" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133" s="119">
+        <v>44397</v>
+      </c>
+      <c r="K133" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="L133" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C134" s="86">
+        <v>128</v>
+      </c>
+      <c r="D134" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E134" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F134" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="G134" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H134" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" s="119">
+        <v>44397</v>
+      </c>
+      <c r="K134" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="L134" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C135" s="86">
+        <v>129</v>
+      </c>
+      <c r="D135" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E135" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="F135" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="G135" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="H135" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J135" s="119">
+        <v>44397</v>
+      </c>
+      <c r="K135" s="90"/>
+      <c r="L135" s="122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C136" s="91">
+        <v>130</v>
+      </c>
+      <c r="D136" s="92" t="s">
+        <v>111</v>
+      </c>
+      <c r="E136" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F136" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="G136" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="H136" s="116" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" s="120">
+        <v>44397</v>
+      </c>
+      <c r="K136" s="95"/>
+      <c r="L136" s="123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/7_3_test_2/7_3_test.xlsx
+++ b/7_3_test_2/7_3_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/研修/テスト/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1b195753a3b14ba9/Desktop/workspace/workspace-endo2/7_programming_jisyu/7_3_test_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{209FA275-5A87-4D09-A1B5-BB83CB4044A6}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="6_{1338BBB2-7B53-479C-903F-43E40FA5C620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1186E491-7AE4-444B-ADFA-32BC15F2FDD6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8FAE6D0D-3917-4C5C-8A49-6F035E7C489B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3402" uniqueCount="268">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1704,92 +1704,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.77の手順でlist.phpを開く。
-④IDがPHPMyAdminで登録した内容と合っているか確認する。</t>
-    <rPh sb="7" eb="9">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③IDが登録した内容に自動採取されているか確認。</t>
-    <rPh sb="7" eb="9">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="67" eb="71">
-      <t>ジドウサイシュ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自動採取される。</t>
-    <rPh sb="0" eb="4">
-      <t>ジドウサイシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録した内容が表示される。</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -1799,29 +1713,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.77の手順でlist.phpを開く。
-④名前（姓）がPHPMyAdminで登録した内容と合っているか確認する。</t>
-    <rPh sb="80" eb="82">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.77の手順でlist.phpを開く。
-④名前（名）がPHPMyAdminで登録した内容と合っているか確認する。</t>
-    <rPh sb="83" eb="84">
-      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1850,150 +1741,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.77の手順でlist.phpを開く。
-④カナ（姓）がPHPMyAdminで登録した内容と合っているか確認する。</t>
-    <rPh sb="83" eb="84">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.77の手順でlist.phpを開く。
-④カナ（名）がPHPMyAdminで登録した内容と合っているか確認する。</t>
-    <rPh sb="83" eb="84">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.77の手順でlist.phpを開く。
-④メールアドレスがPHPMyAdminで登録した内容と合っているか確認する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.77の手順でlist.phpを開く。
-④性別がPHPMyAdminで登録した内容と合っているか確認する。</t>
-    <rPh sb="80" eb="82">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.77の手順でlist.phpを開く。
-④アカウント権限がPHPMyAdminで登録した内容と合っているか確認する。</t>
-    <rPh sb="85" eb="87">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③登録日時が登録した内容に自動採取されているか確認。</t>
-    <rPh sb="57" eb="61">
-      <t>トウロクニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③更新日時が登録した内容に自動採取されているか確認。</t>
-    <rPh sb="57" eb="59">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.105の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③IDが登録した内容に自動採取されているか確認。</t>
-    <rPh sb="8" eb="10">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="68" eb="72">
-      <t>ジドウサイシュ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.105の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
-④IDがPHPMyAdminで登録した内容と合っているか確認する。</t>
-    <rPh sb="8" eb="10">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①No.108の手順でlist.phpを開く。
 ②IDが降順で表示されているか確認。</t>
     <rPh sb="28" eb="30">
@@ -2008,9 +1755,807 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>登録された時間で入っている。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録された値で入っている。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム名：index.htm,regist.php,regist_comfirm.php,regist_complete.php,list.php</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPMyAdminでは数字での表示だったが、
+list.phpではアカウント登録にて選択した内容が表示された。</t>
+    <rPh sb="12" eb="14">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHPMyAdminでは数字での表示だったが、
+list.phpではアカウント登録にて選択した内容が表示された。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0で入っている。</t>
+    <rPh sb="2" eb="3">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULLになっている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動採取で入っている。</t>
+    <rPh sb="0" eb="4">
+      <t>ジドウサイシュ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminのIDの値が自動採取で入っているかの確認。</t>
+    <rPh sb="51" eb="55">
+      <t>ジドウサイシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminにパスワードの値が入力した内容がハッシュ化されて登録されているかの確認。</t>
+    <rPh sb="65" eb="66">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminに名前（姓）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="46" eb="48">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminに名前（名）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="49" eb="50">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminにカナ（姓）の値が入力した内容にて反映されているかの確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminにカナ（名）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="49" eb="50">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminにメールアドレスの値が入力した内容にて反映されているかの確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminに郵便番号の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="46" eb="50">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminに住所（都道府県）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="46" eb="48">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminに住所（市区町村）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="46" eb="48">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminに住所（番地）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="46" eb="48">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminに性別の値が入力した内容にて(男なら0、女なら1)反映されているかの確認。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminにアカウント権限の値が入力した内容にて(一般なら0、管理者なら1)反映されているかの確認。</t>
+    <rPh sb="51" eb="53">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminの登録日時の値が登録した時間で入っているかの確認。</t>
+    <rPh sb="46" eb="48">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminの削除フラグの値が0で入っているかの確認。</t>
+    <rPh sb="46" eb="48">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.74の手順でregist_complete.phpを開く。
+②PHPMyAdminの更新日時の値が更新した時間で入っているかの確認。</t>
+    <rPh sb="46" eb="48">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反映されている。</t>
+    <rPh sb="0" eb="2">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反映されている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminのIDの値が自動採取で入っているかの確認。</t>
+    <rPh sb="52" eb="56">
+      <t>ジドウサイシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminに名前（姓）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminに名前（名）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="50" eb="51">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminにカナ（姓）の値が入力した内容にて反映されているかの確認。</t>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminにカナ（名）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="50" eb="51">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminにメールアドレスの値が入力した内容にて反映されているかの確認。</t>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminにパスワードの値が入力した内容がハッシュ化されて登録されているかの確認。</t>
+    <rPh sb="66" eb="67">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminに性別の値が入力した内容にて(男なら0、女なら1)反映されているかの確認。</t>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminに郵便番号の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="47" eb="51">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminに住所（都道府県）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminに住所（市区町村）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminに住所（番地）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminにアカウント権限の値が入力した内容にて(一般なら0、管理者なら1)反映されているかの確認。</t>
+    <rPh sb="52" eb="54">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminの削除フラグの値が0で入っているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminの登録日時の値が登録した時間で入っているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.100の手順でregist_complete.phpを開く。
+②PHPMyAdminの更新日時の値が更新した時間で入っているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.93の手順でlist.phpを開く。
+④IDがPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="7" eb="9">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.93の手順でlist.phpを開く。
+④名前（姓）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="80" eb="82">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.93の手順でlist.phpを開く。
+④名前（名）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="83" eb="84">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.93の手順でlist.phpを開く。
+④カナ（姓）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="83" eb="84">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.93の手順でlist.phpを開く。
+④カナ（名）がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="83" eb="84">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.93の手順でlist.phpを開く。
+④メールアドレスがPHPMyAdminで登録した内容と合っているか確認する。</t>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.93の手順でlist.phpを開く。
+④性別がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="80" eb="82">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.93の手順でlist.phpを開く。
+④アカウント権限がPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="85" eb="87">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.93の手順でlist.phpを開く。
+④登録日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
+    <rPh sb="80" eb="84">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.93の手順でlist.phpを開く。
+④更新日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
+    <rPh sb="80" eb="82">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="114" eb="117">
+      <t>ネンツキヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.92の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.93の手順でlist.phpを開く。
+④削除フラグがPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="80" eb="82">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULLになっている</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminのIDの値が自動採取で入っているかの確認。</t>
+    <rPh sb="52" eb="56">
+      <t>ジドウサイシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminに名前（姓）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminに名前（名）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="50" eb="51">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminにカナ（姓）の値が入力した内容にて反映されているかの確認。</t>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminにカナ（名）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="50" eb="51">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminにメールアドレスの値が入力した内容にて反映されているかの確認。</t>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminにパスワードの値が入力した内容がハッシュ化されて登録されているかの確認。</t>
+    <rPh sb="66" eb="67">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminに性別の値が入力した内容にて(男なら0、女なら1)反映されているかの確認。</t>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminに郵便番号の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="47" eb="51">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminに住所（都道府県）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminに住所（市区町村）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="50" eb="54">
+      <t>シクチョウソン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminに住所（番地）の値が入力した内容にて反映されているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminにアカウント権限の値が入力した内容にて(一般なら0、管理者なら1)反映されているかの確認。</t>
+    <rPh sb="52" eb="54">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminの削除フラグの値が0で入っているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminの登録日時の値が登録した時間で入っているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.102の手順でregist_complete.phpを開く。
+②PHPMyAdminの更新日時の値が更新した時間で入っているかの確認。</t>
+    <rPh sb="47" eb="49">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.121の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.122の手順でlist.phpを開く。
+④IDがPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.121の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.122の手順でlist.phpを開く。
 ④名前（姓）がPHPMyAdminで登録した内容と合っているか確認する。</t>
     <rPh sb="82" eb="84">
       <t>ナマエ</t>
@@ -2021,9 +2566,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④名前（名）がPHPMyAdminで登録した内容と合っているか確認する。</t>
     <rPh sb="85" eb="86">
       <t>メイ</t>
@@ -2031,9 +2576,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④カナ（姓）がPHPMyAdminで登録した内容と合っているか確認する。</t>
     <rPh sb="85" eb="86">
       <t>セイ</t>
@@ -2041,9 +2586,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④カナ（名）がPHPMyAdminで登録した内容と合っているか確認する。</t>
     <rPh sb="85" eb="86">
       <t>メイ</t>
@@ -2051,16 +2596,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④メールアドレスがPHPMyAdminで登録した内容と合っているか確認する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.105の手順でアカウント登録をする。
+  </si>
+  <si>
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④性別がPHPMyAdminで登録した内容と合っているか確認する。</t>
     <rPh sb="82" eb="84">
       <t>セイベツ</t>
@@ -2068,9 +2612,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④アカウント権限がPHPMyAdminで登録した内容と合っているか確認する。</t>
     <rPh sb="87" eb="89">
       <t>ケンゲン</t>
@@ -2078,27 +2622,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③登録日時が登録した内容に自動採取されているか確認。</t>
-    <rPh sb="58" eb="62">
+③No.122の手順でlist.phpを開く。
+④登録日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
+    <rPh sb="82" eb="86">
       <t>トウロクニチジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③更新日時が登録した内容に自動採取されているか確認。</t>
-    <rPh sb="58" eb="60">
+③No.122の手順でlist.phpを開く。
+④更新日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
+    <rPh sb="82" eb="84">
       <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤IDが登録された値で入っているか確認する。</t>
+    <rPh sb="109" eb="111">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.121の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.122の手順でlist.phpを開く。
 ④右クリックを押し、ページのソースを表示する。
 ⑤名前（姓）が入力した値で入っているか確認する。</t>
     <rPh sb="36" eb="38">
@@ -2149,9 +2706,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④右クリックを押し、ページのソースを表示する。
 ⑤名前（名）が入力した値で入っているか確認する。</t>
     <rPh sb="109" eb="110">
@@ -2160,9 +2717,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④右クリックを押し、ページのソースを表示する。
 ⑤カナ（姓）が入力した値で入っているか確認する。</t>
     <rPh sb="109" eb="110">
@@ -2171,9 +2728,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④右クリックを押し、ページのソースを表示する。
 ⑤カナ（名）が入力した値で入っているか確認する。</t>
     <rPh sb="109" eb="110">
@@ -2182,17 +2739,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④右クリックを押し、ページのソースを表示する。
 ⑤メールアドレスが入力した値で入っているか確認する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.105の手順でアカウント登録をする。
+  </si>
+  <si>
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④右クリックを押し、ページのソースを表示する。
 ⑤性別が選択した値で入っているか確認する。</t>
     <rPh sb="106" eb="108">
@@ -2204,9 +2760,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④右クリックを押し、ページのソースを表示する。
 ⑤アカウント権限が選択した値で入っているか確認する。</t>
     <rPh sb="111" eb="113">
@@ -2215,96 +2771,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>登録された時間で入っている。</t>
-    <rPh sb="0" eb="2">
+    <t>①No.121の手順でアカウント登録をする。
+②PHPMyAdminにて登録した内容が表示されているか確認する。
+③No.122の手順でlist.phpを開く。
+④右クリックを押し、ページのソースを表示する。
+⑤削除フラグが登録された値で入っているか確認する。</t>
+    <rPh sb="106" eb="108">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④右クリックを押し、ページのソースを表示する。
-⑤IDが登録された値で入っているか確認する。</t>
-    <rPh sb="109" eb="111">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録された値で入っている。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プログラム名：index.htm,regist.php,regist_comfirm.php,regist_complete.php,list.php</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
+⑤登録日時が登録された日時で入っているか確認する（年月日のみ）。</t>
+    <rPh sb="106" eb="110">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.77の手順でlist.phpを開く。
-④更新日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
-    <rPh sb="80" eb="82">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="114" eb="117">
-      <t>ネンツキヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.76の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.77の手順でlist.phpを開く。
-④登録日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
-    <rPh sb="80" eb="84">
-      <t>トウロクニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.105の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
-④更新日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
-    <rPh sb="82" eb="84">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.105の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
-④登録日時がPHPMyAdminで登録した内容と合っているか確認する（年月日のみ）。</t>
-    <rPh sb="82" eb="86">
-      <t>トウロクニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①No.105の手順でアカウント登録をする。
-②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
+③No.122の手順でlist.phpを開く。
 ④右クリックを押し、ページのソースを表示する。
 ⑤更新日時が登録された日時で入っているか確認する（年月日のみ）。</t>
     <rPh sb="106" eb="108">
@@ -2313,42 +2807,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①No.105の手順でアカウント登録をする。
+    <t>①No.121の手順でアカウント登録をする。
 ②PHPMyAdminにて登録した内容が表示されているか確認する。
-③No.106の手順でlist.phpを開く。
-④右クリックを押し、ページのソースを表示する。
-⑤登録日時が登録された日時で入っているか確認する（年月日のみ）。</t>
-    <rPh sb="106" eb="110">
-      <t>トウロクニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PHPMyAdminでは数字での表示だったが、
-list.phpではアカウント登録にて選択した内容が表示された。</t>
-    <rPh sb="12" eb="14">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PHPMyAdminでは数字での表示だったが、
-list.phpではアカウント登録にて選択した内容が表示された。</t>
+③No.122の手順でlist.phpを開く。
+④削除フラグがPHPMyAdminで登録した内容と合っているか確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日：7/20</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2357,7 +2826,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2422,7 +2891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2678,13 +3147,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2788,18 +3270,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2907,9 +3377,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2930,21 +3397,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2973,9 +3425,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2984,9 +3433,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3018,10 +3464,10 @@
     <xf numFmtId="56" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3036,16 +3482,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3056,6 +3499,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3371,10 +3841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE120A15-3C36-4CC9-99A1-A48CE8DCA9D0}">
-  <dimension ref="C2:L83"/>
+  <dimension ref="C2:L99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="G79" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82:L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3393,10 +3863,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
@@ -3404,8 +3874,8 @@
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
       <c r="H3" s="14" t="s">
         <v>18</v>
       </c>
@@ -5738,47 +6208,529 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C82" s="16">
+    <row r="82" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C82" s="23">
         <v>76</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" s="28" t="s">
+      <c r="D82" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K82" s="26"/>
+      <c r="L82" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C83" s="23">
+        <v>77</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K83" s="26"/>
+      <c r="L83" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C84" s="23">
+        <v>78</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K84" s="26"/>
+      <c r="L84" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C85" s="23">
+        <v>79</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K85" s="26"/>
+      <c r="L85" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C86" s="23">
+        <v>80</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K86" s="26"/>
+      <c r="L86" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C87" s="23">
+        <v>81</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K87" s="26"/>
+      <c r="L87" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C88" s="23">
+        <v>82</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K88" s="26"/>
+      <c r="L88" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C89" s="23">
+        <v>83</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K89" s="26"/>
+      <c r="L89" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C90" s="23">
+        <v>84</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H90" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K90" s="26"/>
+      <c r="L90" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C91" s="23">
+        <v>85</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K91" s="26"/>
+      <c r="L91" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C92" s="23">
+        <v>86</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G92" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H92" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K92" s="26"/>
+      <c r="L92" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C93" s="23">
+        <v>87</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H93" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K93" s="26"/>
+      <c r="L93" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C94" s="23">
+        <v>88</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G94" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H94" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K94" s="26"/>
+      <c r="L94" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C95" s="23">
+        <v>89</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G95" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H95" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I95" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K95" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L95" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C96" s="23">
+        <v>90</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H96" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K96" s="26"/>
+      <c r="L96" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C97" s="23">
+        <v>91</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H97" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K97" s="26"/>
+      <c r="L97" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C98" s="16">
+        <v>92</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="F82" s="18" t="s">
+      <c r="F98" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G98" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H82" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="32">
-        <v>44370</v>
-      </c>
-      <c r="K82" s="4"/>
-      <c r="L82" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
+      <c r="H98" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="32">
+        <v>44370</v>
+      </c>
+      <c r="K98" s="4"/>
+      <c r="L98" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C99" s="19"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5793,10 +6745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70A5CC3-1CDB-4564-BDD7-CB53A5012378}">
-  <dimension ref="C2:L113"/>
+  <dimension ref="C2:L127"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5815,19 +6767,19 @@
         <v>134</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="D3" s="70"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
       <c r="H3" s="14" t="s">
         <v>135</v>
       </c>
@@ -8040,393 +8992,393 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:12" s="63" customFormat="1" ht="36" x14ac:dyDescent="0.45">
-      <c r="C78" s="59">
+    <row r="78" spans="3:12" s="59" customFormat="1" ht="36" x14ac:dyDescent="0.45">
+      <c r="C78" s="55">
         <v>72</v>
       </c>
-      <c r="D78" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E78" s="43" t="s">
+      <c r="D78" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F78" s="44" t="s">
+      <c r="F78" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G78" s="45" t="s">
+      <c r="G78" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="H78" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J78" s="48">
+      <c r="H78" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="44">
         <v>44379</v>
       </c>
-      <c r="K78" s="45"/>
-      <c r="L78" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C79" s="59">
+      <c r="K78" s="41"/>
+      <c r="L78" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C79" s="55">
         <v>73</v>
       </c>
-      <c r="D79" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E79" s="43" t="s">
+      <c r="D79" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="44" t="s">
+      <c r="F79" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="G79" s="45" t="s">
+      <c r="G79" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="H79" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J79" s="48">
+      <c r="H79" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="44">
         <v>44379</v>
       </c>
-      <c r="K79" s="45"/>
-      <c r="L79" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C80" s="59">
+      <c r="K79" s="41"/>
+      <c r="L79" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C80" s="55">
         <v>74</v>
       </c>
-      <c r="D80" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" s="43" t="s">
+      <c r="D80" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="G80" s="45" t="s">
+      <c r="G80" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H80" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J80" s="48">
+      <c r="H80" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="44">
         <v>44379</v>
       </c>
-      <c r="K80" s="45"/>
-      <c r="L80" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C81" s="59">
+      <c r="K80" s="41"/>
+      <c r="L80" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C81" s="55">
         <v>75</v>
       </c>
-      <c r="D81" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" s="43" t="s">
+      <c r="D81" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F81" s="44" t="s">
+      <c r="F81" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G81" s="45" t="s">
+      <c r="G81" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H81" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" s="48">
+      <c r="H81" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="44">
         <v>44379</v>
       </c>
-      <c r="K81" s="45"/>
-      <c r="L81" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C82" s="59">
+      <c r="K81" s="41"/>
+      <c r="L81" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C82" s="55">
         <v>76</v>
       </c>
-      <c r="D82" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" s="43" t="s">
+      <c r="D82" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F82" s="44" t="s">
+      <c r="F82" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G82" s="45" t="s">
+      <c r="G82" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H82" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="48">
+      <c r="H82" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="44">
         <v>44379</v>
       </c>
-      <c r="K82" s="45"/>
-      <c r="L82" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C83" s="59">
+      <c r="K82" s="41"/>
+      <c r="L82" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C83" s="55">
         <v>77</v>
       </c>
-      <c r="D83" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="43" t="s">
+      <c r="D83" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="44" t="s">
+      <c r="F83" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="45" t="s">
+      <c r="G83" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H83" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J83" s="48">
+      <c r="H83" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="44">
         <v>44379</v>
       </c>
-      <c r="K83" s="45"/>
-      <c r="L83" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C84" s="59">
+      <c r="K83" s="41"/>
+      <c r="L83" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C84" s="55">
         <v>78</v>
       </c>
-      <c r="D84" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" s="43" t="s">
+      <c r="D84" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F84" s="44" t="s">
+      <c r="F84" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G84" s="45" t="s">
+      <c r="G84" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H84" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J84" s="48">
+      <c r="H84" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="44">
         <v>44379</v>
       </c>
-      <c r="K84" s="45"/>
-      <c r="L84" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C85" s="59">
+      <c r="K84" s="41"/>
+      <c r="L84" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C85" s="55">
         <v>79</v>
       </c>
-      <c r="D85" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" s="43" t="s">
+      <c r="D85" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F85" s="44" t="s">
+      <c r="F85" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G85" s="45" t="s">
+      <c r="G85" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H85" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J85" s="48">
+      <c r="H85" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="44">
         <v>44379</v>
       </c>
-      <c r="K85" s="45"/>
-      <c r="L85" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C86" s="59">
+      <c r="K85" s="41"/>
+      <c r="L85" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C86" s="55">
         <v>80</v>
       </c>
-      <c r="D86" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" s="43" t="s">
+      <c r="D86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F86" s="44" t="s">
+      <c r="F86" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G86" s="45" t="s">
+      <c r="G86" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H86" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J86" s="48">
+      <c r="H86" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="44">
         <v>44379</v>
       </c>
-      <c r="K86" s="45"/>
-      <c r="L86" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C87" s="59">
+      <c r="K86" s="41"/>
+      <c r="L86" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C87" s="55">
         <v>81</v>
       </c>
-      <c r="D87" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E87" s="43" t="s">
+      <c r="D87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F87" s="44" t="s">
+      <c r="F87" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G87" s="45" t="s">
+      <c r="G87" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H87" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J87" s="48">
+      <c r="H87" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="44">
         <v>44379</v>
       </c>
-      <c r="K87" s="45"/>
-      <c r="L87" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C88" s="59">
+      <c r="K87" s="41"/>
+      <c r="L87" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C88" s="55">
         <v>82</v>
       </c>
-      <c r="D88" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E88" s="43" t="s">
+      <c r="D88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F88" s="44" t="s">
+      <c r="F88" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G88" s="45" t="s">
+      <c r="G88" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H88" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J88" s="48">
+      <c r="H88" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="44">
         <v>44379</v>
       </c>
-      <c r="K88" s="45"/>
-      <c r="L88" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C89" s="59">
+      <c r="K88" s="41"/>
+      <c r="L88" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C89" s="55">
         <v>83</v>
       </c>
-      <c r="D89" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" s="43" t="s">
+      <c r="D89" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F89" s="44" t="s">
+      <c r="F89" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G89" s="45" t="s">
+      <c r="G89" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H89" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J89" s="48">
+      <c r="H89" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="44">
         <v>44379</v>
       </c>
-      <c r="K89" s="45"/>
-      <c r="L89" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C90" s="59">
+      <c r="K89" s="41"/>
+      <c r="L89" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C90" s="55">
         <v>84</v>
       </c>
-      <c r="D90" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E90" s="43" t="s">
+      <c r="D90" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="44" t="s">
+      <c r="F90" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="G90" s="45" t="s">
+      <c r="G90" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H90" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" s="48">
+      <c r="H90" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="44">
         <v>44379</v>
       </c>
-      <c r="K90" s="45"/>
-      <c r="L90" s="49" t="s">
+      <c r="K90" s="41"/>
+      <c r="L90" s="45" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8461,362 +9413,362 @@
       </c>
     </row>
     <row r="92" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C92" s="41">
+      <c r="C92" s="37">
         <v>86</v>
       </c>
-      <c r="D92" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E92" s="43" t="s">
+      <c r="D92" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F92" s="44" t="s">
+      <c r="F92" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="G92" s="45" t="s">
+      <c r="G92" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H92" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="48">
+      <c r="H92" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="44">
         <v>44379</v>
       </c>
-      <c r="K92" s="45"/>
-      <c r="L92" s="49" t="s">
+      <c r="K92" s="41"/>
+      <c r="L92" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="93" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C93" s="41">
+      <c r="C93" s="37">
         <v>87</v>
       </c>
-      <c r="D93" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E93" s="43" t="s">
+      <c r="D93" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F93" s="44" t="s">
+      <c r="F93" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="G93" s="45" t="s">
+      <c r="G93" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H93" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="48">
+      <c r="H93" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="44">
         <v>44379</v>
       </c>
-      <c r="K93" s="45"/>
-      <c r="L93" s="49" t="s">
+      <c r="K93" s="41"/>
+      <c r="L93" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C94" s="41">
+      <c r="C94" s="37">
         <v>88</v>
       </c>
-      <c r="D94" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" s="43" t="s">
+      <c r="D94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="44" t="s">
+      <c r="F94" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G94" s="45" t="s">
+      <c r="G94" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H94" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="48">
+      <c r="H94" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="44">
         <v>44379</v>
       </c>
-      <c r="K94" s="45"/>
-      <c r="L94" s="49" t="s">
+      <c r="K94" s="41"/>
+      <c r="L94" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="95" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C95" s="41">
+      <c r="C95" s="37">
         <v>89</v>
       </c>
-      <c r="D95" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E95" s="43" t="s">
+      <c r="D95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="G95" s="45" t="s">
+      <c r="G95" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H95" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="48">
+      <c r="H95" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="44">
         <v>44379</v>
       </c>
-      <c r="K95" s="45"/>
-      <c r="L95" s="49" t="s">
+      <c r="K95" s="41"/>
+      <c r="L95" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C96" s="41">
+      <c r="C96" s="37">
         <v>90</v>
       </c>
-      <c r="D96" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E96" s="43" t="s">
+      <c r="D96" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="G96" s="45" t="s">
+      <c r="G96" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H96" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J96" s="48">
+      <c r="H96" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="44">
         <v>44379</v>
       </c>
-      <c r="K96" s="45"/>
-      <c r="L96" s="49" t="s">
+      <c r="K96" s="41"/>
+      <c r="L96" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C97" s="41">
+      <c r="C97" s="37">
         <v>91</v>
       </c>
-      <c r="D97" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E97" s="43" t="s">
+      <c r="D97" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F97" s="44" t="s">
+      <c r="F97" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="G97" s="45" t="s">
+      <c r="G97" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H97" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" s="48">
+      <c r="H97" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="44">
         <v>44379</v>
       </c>
-      <c r="K97" s="45"/>
-      <c r="L97" s="49" t="s">
+      <c r="K97" s="41"/>
+      <c r="L97" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C98" s="41">
+      <c r="C98" s="37">
         <v>92</v>
       </c>
-      <c r="D98" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E98" s="43" t="s">
+      <c r="D98" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F98" s="44" t="s">
+      <c r="F98" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="G98" s="45" t="s">
+      <c r="G98" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H98" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J98" s="48">
+      <c r="H98" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="44">
         <v>44379</v>
       </c>
-      <c r="K98" s="45"/>
-      <c r="L98" s="49" t="s">
+      <c r="K98" s="41"/>
+      <c r="L98" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C99" s="41">
+      <c r="C99" s="37">
         <v>93</v>
       </c>
-      <c r="D99" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E99" s="43" t="s">
+      <c r="D99" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F99" s="44" t="s">
+      <c r="F99" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="G99" s="45" t="s">
+      <c r="G99" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H99" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" s="48">
+      <c r="H99" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="44">
         <v>44379</v>
       </c>
-      <c r="K99" s="45"/>
-      <c r="L99" s="49" t="s">
+      <c r="K99" s="41"/>
+      <c r="L99" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C100" s="41">
+      <c r="C100" s="37">
         <v>94</v>
       </c>
-      <c r="D100" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E100" s="43" t="s">
+      <c r="D100" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F100" s="44" t="s">
+      <c r="F100" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="G100" s="45" t="s">
+      <c r="G100" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H100" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="48">
+      <c r="H100" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="44">
         <v>44379</v>
       </c>
-      <c r="K100" s="45"/>
-      <c r="L100" s="49" t="s">
+      <c r="K100" s="41"/>
+      <c r="L100" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C101" s="41">
+      <c r="C101" s="37">
         <v>95</v>
       </c>
-      <c r="D101" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E101" s="43" t="s">
+      <c r="D101" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F101" s="44" t="s">
+      <c r="F101" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="G101" s="45" t="s">
+      <c r="G101" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H101" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J101" s="48">
+      <c r="H101" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="44">
         <v>44379</v>
       </c>
-      <c r="K101" s="45"/>
-      <c r="L101" s="49" t="s">
+      <c r="K101" s="41"/>
+      <c r="L101" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C102" s="41">
+      <c r="C102" s="37">
         <v>96</v>
       </c>
-      <c r="D102" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E102" s="43" t="s">
+      <c r="D102" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F102" s="44" t="s">
+      <c r="F102" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="G102" s="45" t="s">
+      <c r="G102" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H102" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J102" s="48">
+      <c r="H102" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="44">
         <v>44379</v>
       </c>
-      <c r="K102" s="45"/>
-      <c r="L102" s="49" t="s">
+      <c r="K102" s="41"/>
+      <c r="L102" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="103" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C103" s="41">
+      <c r="C103" s="37">
         <v>97</v>
       </c>
-      <c r="D103" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E103" s="43" t="s">
+      <c r="D103" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F103" s="44" t="s">
+      <c r="F103" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="G103" s="45" t="s">
+      <c r="G103" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H103" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J103" s="48">
+      <c r="H103" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="44">
         <v>44379</v>
       </c>
-      <c r="K103" s="45"/>
-      <c r="L103" s="49" t="s">
+      <c r="K103" s="41"/>
+      <c r="L103" s="45" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8851,32 +9803,32 @@
       </c>
     </row>
     <row r="105" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C105" s="41">
+      <c r="C105" s="37">
         <v>99</v>
       </c>
-      <c r="D105" s="42" t="s">
+      <c r="D105" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F105" s="44" t="s">
+      <c r="F105" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G105" s="45" t="s">
+      <c r="G105" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="H105" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" s="48">
+      <c r="H105" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="44">
         <v>44379</v>
       </c>
-      <c r="K105" s="45"/>
-      <c r="L105" s="49" t="s">
+      <c r="K105" s="41"/>
+      <c r="L105" s="45" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8910,23 +9862,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C107" s="64">
+    <row r="107" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C107" s="60">
         <v>101</v>
       </c>
-      <c r="D107" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E107" s="66" t="s">
+      <c r="D107" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="F107" s="67" t="s">
+      <c r="F107" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="G107" s="68" t="s">
+      <c r="G107" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="H107" s="69" t="s">
+      <c r="H107" s="65" t="s">
         <v>12</v>
       </c>
       <c r="I107" s="8" t="s">
@@ -8935,7 +9887,7 @@
       <c r="J107" s="9">
         <v>44370</v>
       </c>
-      <c r="K107" s="68"/>
+      <c r="K107" s="64"/>
       <c r="L107" s="10" t="s">
         <v>14</v>
       </c>
@@ -8947,7 +9899,7 @@
       <c r="D108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E108" s="39" t="s">
+      <c r="E108" s="35" t="s">
         <v>117</v>
       </c>
       <c r="F108" s="5" t="s">
@@ -8962,7 +9914,7 @@
       <c r="I108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J108" s="40">
+      <c r="J108" s="36">
         <v>44370</v>
       </c>
       <c r="K108" s="2"/>
@@ -8970,119 +9922,577 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C109" s="50">
+    <row r="109" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C109" s="46">
         <v>103</v>
       </c>
-      <c r="D109" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E109" s="52" t="s">
+      <c r="D109" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="F109" s="53" t="s">
+      <c r="F109" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="G109" s="54" t="s">
+      <c r="G109" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="H109" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J109" s="57">
+      <c r="H109" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="53">
         <v>44379</v>
       </c>
-      <c r="K109" s="54"/>
-      <c r="L109" s="58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="3:12" s="63" customFormat="1" ht="108" x14ac:dyDescent="0.45">
-      <c r="C110" s="41">
+      <c r="K109" s="50"/>
+      <c r="L109" s="54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" s="59" customFormat="1" ht="108" x14ac:dyDescent="0.45">
+      <c r="C110" s="37">
         <v>104</v>
       </c>
-      <c r="D110" s="42" t="s">
+      <c r="D110" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E110" s="43" t="s">
+      <c r="E110" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F110" s="44" t="s">
+      <c r="F110" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="G110" s="45" t="s">
+      <c r="G110" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="H110" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I110" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="J110" s="61">
+      <c r="H110" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="57">
         <v>44379</v>
       </c>
-      <c r="K110" s="45"/>
-      <c r="L110" s="62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C111" s="16">
+      <c r="K110" s="41"/>
+      <c r="L110" s="58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C111" s="115">
         <v>105</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E111" s="28" t="s">
+      <c r="D111" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K111" s="26"/>
+      <c r="L111" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C112" s="60">
+        <v>106</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K112" s="26"/>
+      <c r="L112" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C113" s="115">
+        <v>107</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G113" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H113" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K113" s="26"/>
+      <c r="L113" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C114" s="60">
+        <v>108</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G114" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H114" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K114" s="26"/>
+      <c r="L114" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C115" s="115">
+        <v>109</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G115" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H115" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K115" s="26"/>
+      <c r="L115" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C116" s="60">
+        <v>110</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H116" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K116" s="26"/>
+      <c r="L116" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C117" s="115">
+        <v>111</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G117" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H117" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K117" s="26"/>
+      <c r="L117" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C118" s="60">
+        <v>112</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H118" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K118" s="26"/>
+      <c r="L118" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C119" s="115">
+        <v>113</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H119" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K119" s="26"/>
+      <c r="L119" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C120" s="60">
+        <v>114</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="G120" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H120" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K120" s="26"/>
+      <c r="L120" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C121" s="115">
+        <v>115</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G121" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H121" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K121" s="26"/>
+      <c r="L121" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C122" s="60">
+        <v>116</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H122" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K122" s="26"/>
+      <c r="L122" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C123" s="115">
         <v>117</v>
       </c>
-      <c r="F111" s="18" t="s">
+      <c r="D123" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G123" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H123" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K123" s="26"/>
+      <c r="L123" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C124" s="60">
+        <v>118</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G124" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H124" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I124" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K124" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L124" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C125" s="115">
+        <v>119</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="G125" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H125" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K125" s="26"/>
+      <c r="L125" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C126" s="60">
+        <v>120</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G126" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H126" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K126" s="26"/>
+      <c r="L126" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C127" s="116">
+        <v>121</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F127" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="G111" s="4" t="s">
+      <c r="G127" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H111" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I111" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="J111" s="32">
-        <v>44370</v>
-      </c>
-      <c r="K111" s="4"/>
-      <c r="L111" s="34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C112" s="19"/>
-      <c r="D112" s="20"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="38"/>
-    </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="C113" s="19"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
+      <c r="H127" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="32">
+        <v>44370</v>
+      </c>
+      <c r="K127" s="4"/>
+      <c r="L127" s="34" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9118,10 +10528,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="C2:L97"/>
+  <dimension ref="C2:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9141,10 +10551,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="83"/>
+      <c r="F2" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="111"/>
       <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
@@ -9152,10 +10562,10 @@
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D3" s="14"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
       <c r="H3" s="14" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.45">
@@ -11486,7 +12896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+    <row r="82" spans="3:12" ht="54" x14ac:dyDescent="0.45">
       <c r="C82" s="23">
         <v>76</v>
       </c>
@@ -11494,479 +12904,903 @@
         <v>111</v>
       </c>
       <c r="E82" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K82" s="26"/>
+      <c r="L82" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C83" s="23">
+        <v>77</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F83" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K83" s="26"/>
+      <c r="L83" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C84" s="23">
+        <v>78</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F84" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K84" s="26"/>
+      <c r="L84" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C85" s="23">
+        <v>79</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G85" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H85" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K85" s="26"/>
+      <c r="L85" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C86" s="23">
+        <v>80</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F86" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G86" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K86" s="26"/>
+      <c r="L86" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C87" s="23">
+        <v>81</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G87" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K87" s="26"/>
+      <c r="L87" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C88" s="23">
+        <v>82</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G88" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H88" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K88" s="26"/>
+      <c r="L88" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C89" s="23">
+        <v>83</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G89" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H89" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K89" s="26"/>
+      <c r="L89" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C90" s="23">
+        <v>84</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F90" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H90" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K90" s="26"/>
+      <c r="L90" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C91" s="23">
+        <v>85</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K91" s="26"/>
+      <c r="L91" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C92" s="23">
+        <v>86</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G92" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H92" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K92" s="26"/>
+      <c r="L92" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C93" s="23">
+        <v>87</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F93" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G93" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H93" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K93" s="26"/>
+      <c r="L93" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C94" s="23">
+        <v>88</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G94" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H94" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K94" s="26"/>
+      <c r="L94" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C95" s="23">
+        <v>89</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G95" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H95" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I95" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K95" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L95" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C96" s="23">
+        <v>90</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F96" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H96" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K96" s="26"/>
+      <c r="L96" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C97" s="23">
+        <v>91</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H97" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K97" s="26"/>
+      <c r="L97" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C98" s="23">
+        <v>92</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="F82" s="25" t="s">
+      <c r="F98" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="G82" s="26" t="s">
+      <c r="G98" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="H82" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="72">
-        <v>44370</v>
-      </c>
-      <c r="K82" s="26"/>
-      <c r="L82" s="73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C83" s="96">
-        <v>77</v>
-      </c>
-      <c r="D83" s="97" t="s">
+      <c r="H98" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="68">
+        <v>44370</v>
+      </c>
+      <c r="K98" s="26"/>
+      <c r="L98" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C99" s="117">
+        <v>93</v>
+      </c>
+      <c r="D99" s="86" t="s">
         <v>169</v>
       </c>
-      <c r="E83" s="97" t="s">
+      <c r="E99" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="F83" s="98" t="s">
+      <c r="F99" s="87" t="s">
         <v>168</v>
       </c>
-      <c r="G83" s="99" t="s">
+      <c r="G99" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="H83" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="J83" s="109">
+      <c r="H99" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="97">
         <v>44397</v>
       </c>
-      <c r="K83" s="99"/>
-      <c r="L83" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C84" s="96">
-        <v>78</v>
-      </c>
-      <c r="D84" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" s="100" t="s">
+      <c r="K99" s="88"/>
+      <c r="L99" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C100" s="117">
+        <v>94</v>
+      </c>
+      <c r="D100" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="F84" s="98" t="s">
+      <c r="F100" s="87" t="s">
+        <v>217</v>
+      </c>
+      <c r="G100" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H100" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="98">
+        <v>44397</v>
+      </c>
+      <c r="K100" s="89"/>
+      <c r="L100" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C101" s="117">
+        <v>95</v>
+      </c>
+      <c r="D101" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F101" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="G84" s="99" t="s">
+      <c r="G101" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="H84" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="J84" s="109">
+      <c r="H101" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="98">
         <v>44397</v>
       </c>
-      <c r="K84" s="99"/>
-      <c r="L84" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C85" s="96">
-        <v>79</v>
-      </c>
-      <c r="D85" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" s="98" t="s">
+      <c r="K101" s="89"/>
+      <c r="L101" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C102" s="117">
+        <v>96</v>
+      </c>
+      <c r="D102" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="F85" s="98" t="s">
+      <c r="F102" s="87" t="s">
+        <v>218</v>
+      </c>
+      <c r="G102" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="G85" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="H85" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J85" s="110">
+      <c r="H102" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="98">
         <v>44397</v>
       </c>
-      <c r="K85" s="101"/>
-      <c r="L85" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C86" s="96">
-        <v>80</v>
-      </c>
-      <c r="D86" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" s="98" t="s">
+      <c r="K102" s="89"/>
+      <c r="L102" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C103" s="117">
+        <v>97</v>
+      </c>
+      <c r="D103" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="F86" s="98" t="s">
-        <v>177</v>
-      </c>
-      <c r="G86" s="99" t="s">
-        <v>178</v>
-      </c>
-      <c r="H86" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J86" s="110">
+      <c r="F103" s="87" t="s">
+        <v>219</v>
+      </c>
+      <c r="G103" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H103" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="98">
         <v>44397</v>
       </c>
-      <c r="K86" s="101"/>
-      <c r="L86" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C87" s="96">
-        <v>81</v>
-      </c>
-      <c r="D87" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E87" s="98" t="s">
+      <c r="K103" s="89"/>
+      <c r="L103" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C104" s="117">
+        <v>98</v>
+      </c>
+      <c r="D104" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="F87" s="98" t="s">
-        <v>175</v>
-      </c>
-      <c r="G87" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="H87" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J87" s="110">
+      <c r="F104" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="G104" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H104" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J104" s="98">
         <v>44397</v>
       </c>
-      <c r="K87" s="101"/>
-      <c r="L87" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C88" s="96">
-        <v>82</v>
-      </c>
-      <c r="D88" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E88" s="98" t="s">
+      <c r="K104" s="89"/>
+      <c r="L104" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C105" s="117">
+        <v>99</v>
+      </c>
+      <c r="D105" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="F88" s="98" t="s">
-        <v>176</v>
-      </c>
-      <c r="G88" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="H88" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J88" s="110">
+      <c r="F105" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="G105" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H105" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="99">
         <v>44397</v>
       </c>
-      <c r="K88" s="101"/>
-      <c r="L88" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C89" s="96">
-        <v>83</v>
-      </c>
-      <c r="D89" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" s="98" t="s">
+      <c r="K105" s="89"/>
+      <c r="L105" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C106" s="117">
+        <v>100</v>
+      </c>
+      <c r="D106" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E106" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="F89" s="98" t="s">
+      <c r="F106" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="G106" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H106" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J106" s="99">
+        <v>44397</v>
+      </c>
+      <c r="K106" s="89"/>
+      <c r="L106" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C107" s="117">
+        <v>101</v>
+      </c>
+      <c r="D107" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F107" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="G107" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H107" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J107" s="99">
+        <v>44397</v>
+      </c>
+      <c r="K107" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="G89" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="H89" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J89" s="110">
+      <c r="L107" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C108" s="117">
+        <v>102</v>
+      </c>
+      <c r="D108" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E108" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F108" s="87" t="s">
+        <v>224</v>
+      </c>
+      <c r="G108" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H108" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J108" s="99">
         <v>44397</v>
       </c>
-      <c r="K89" s="101"/>
-      <c r="L89" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C90" s="96">
-        <v>84</v>
-      </c>
-      <c r="D90" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E90" s="98" t="s">
+      <c r="K108" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="L108" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C109" s="117">
+        <v>103</v>
+      </c>
+      <c r="D109" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="F90" s="98" t="s">
-        <v>180</v>
-      </c>
-      <c r="G90" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="H90" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" s="111">
+      <c r="F109" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="G109" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H109" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="I109" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="99">
         <v>44397</v>
       </c>
-      <c r="K90" s="101"/>
-      <c r="L90" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C91" s="96">
-        <v>85</v>
-      </c>
-      <c r="D91" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E91" s="98" t="s">
+      <c r="K109" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="L109" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C110" s="117">
+        <v>104</v>
+      </c>
+      <c r="D110" s="86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E110" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="F91" s="98" t="s">
-        <v>181</v>
-      </c>
-      <c r="G91" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="H91" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J91" s="111">
+      <c r="F110" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="G110" s="88" t="s">
+        <v>171</v>
+      </c>
+      <c r="H110" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="99">
         <v>44397</v>
       </c>
-      <c r="K91" s="101"/>
-      <c r="L91" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C92" s="96">
-        <v>86</v>
-      </c>
-      <c r="D92" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E92" s="98" t="s">
+      <c r="K110" s="89"/>
+      <c r="L110" s="101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C111" s="90">
+        <v>105</v>
+      </c>
+      <c r="D111" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="E111" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="F92" s="98" t="s">
-        <v>182</v>
-      </c>
-      <c r="G92" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="H92" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="111">
+      <c r="F111" s="92" t="s">
+        <v>226</v>
+      </c>
+      <c r="G111" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="H111" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="94" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="100">
         <v>44397</v>
       </c>
-      <c r="K92" s="98" t="s">
-        <v>216</v>
-      </c>
-      <c r="L92" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C93" s="96">
-        <v>87</v>
-      </c>
-      <c r="D93" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E93" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="F93" s="98" t="s">
-        <v>183</v>
-      </c>
-      <c r="G93" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="H93" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="111">
-        <v>44397</v>
-      </c>
-      <c r="K93" s="98" t="s">
-        <v>216</v>
-      </c>
-      <c r="L93" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C94" s="96">
-        <v>88</v>
-      </c>
-      <c r="D94" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="F94" s="98" t="s">
-        <v>184</v>
-      </c>
-      <c r="G94" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="H94" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="111">
-        <v>44397</v>
-      </c>
-      <c r="K94" s="101"/>
-      <c r="L94" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C95" s="96">
-        <v>89</v>
-      </c>
-      <c r="D95" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E95" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="F95" s="98" t="s">
-        <v>210</v>
-      </c>
-      <c r="G95" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="H95" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="111">
-        <v>44397</v>
-      </c>
-      <c r="K95" s="101"/>
-      <c r="L95" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C96" s="96">
-        <v>90</v>
-      </c>
-      <c r="D96" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="E96" s="98" t="s">
-        <v>170</v>
-      </c>
-      <c r="F96" s="98" t="s">
-        <v>185</v>
-      </c>
-      <c r="G96" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="H96" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="101" t="s">
-        <v>13</v>
-      </c>
-      <c r="J96" s="111">
-        <v>44397</v>
-      </c>
-      <c r="K96" s="101"/>
-      <c r="L96" s="113" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C97" s="102">
-        <v>91</v>
-      </c>
-      <c r="D97" s="103" t="s">
-        <v>111</v>
-      </c>
-      <c r="E97" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="F97" s="104" t="s">
-        <v>209</v>
-      </c>
-      <c r="G97" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="H97" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="106" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" s="112">
-        <v>44397</v>
-      </c>
-      <c r="K97" s="106"/>
-      <c r="L97" s="114" t="s">
+      <c r="K111" s="94"/>
+      <c r="L111" s="102" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11986,10 +13820,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="C2:L136"/>
+  <dimension ref="C2:L151"/>
   <sheetViews>
-    <sheetView topLeftCell="E124" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12009,21 +13843,21 @@
         <v>134</v>
       </c>
       <c r="E2" s="14"/>
-      <c r="F2" s="83" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="83"/>
+      <c r="F2" s="111" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="111"/>
       <c r="H2" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.45">
-      <c r="D3" s="70"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="113"/>
       <c r="H3" s="14" t="s">
-        <v>135</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.45">
@@ -14234,393 +16068,393 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="3:12" s="63" customFormat="1" ht="36" x14ac:dyDescent="0.45">
-      <c r="C78" s="59">
+    <row r="78" spans="3:12" s="59" customFormat="1" ht="36" x14ac:dyDescent="0.45">
+      <c r="C78" s="55">
         <v>72</v>
       </c>
-      <c r="D78" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E78" s="43" t="s">
+      <c r="D78" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F78" s="44" t="s">
+      <c r="F78" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="G78" s="45" t="s">
+      <c r="G78" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="H78" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J78" s="48">
+      <c r="H78" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="44">
         <v>44379</v>
       </c>
-      <c r="K78" s="45"/>
-      <c r="L78" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C79" s="59">
+      <c r="K78" s="41"/>
+      <c r="L78" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C79" s="55">
         <v>73</v>
       </c>
-      <c r="D79" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E79" s="43" t="s">
+      <c r="D79" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E79" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="44" t="s">
+      <c r="F79" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="G79" s="45" t="s">
+      <c r="G79" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="H79" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J79" s="48">
+      <c r="H79" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J79" s="44">
         <v>44379</v>
       </c>
-      <c r="K79" s="45"/>
-      <c r="L79" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C80" s="59">
+      <c r="K79" s="41"/>
+      <c r="L79" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C80" s="55">
         <v>74</v>
       </c>
-      <c r="D80" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" s="43" t="s">
+      <c r="D80" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E80" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F80" s="44" t="s">
+      <c r="F80" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="G80" s="45" t="s">
+      <c r="G80" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H80" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J80" s="48">
+      <c r="H80" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J80" s="44">
         <v>44379</v>
       </c>
-      <c r="K80" s="45"/>
-      <c r="L80" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C81" s="59">
+      <c r="K80" s="41"/>
+      <c r="L80" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C81" s="55">
         <v>75</v>
       </c>
-      <c r="D81" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" s="43" t="s">
+      <c r="D81" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F81" s="44" t="s">
+      <c r="F81" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="G81" s="45" t="s">
+      <c r="G81" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H81" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J81" s="48">
+      <c r="H81" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J81" s="44">
         <v>44379</v>
       </c>
-      <c r="K81" s="45"/>
-      <c r="L81" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C82" s="59">
+      <c r="K81" s="41"/>
+      <c r="L81" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C82" s="55">
         <v>76</v>
       </c>
-      <c r="D82" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" s="43" t="s">
+      <c r="D82" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F82" s="44" t="s">
+      <c r="F82" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="G82" s="45" t="s">
+      <c r="G82" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H82" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J82" s="48">
+      <c r="H82" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="44">
         <v>44379</v>
       </c>
-      <c r="K82" s="45"/>
-      <c r="L82" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C83" s="59">
+      <c r="K82" s="41"/>
+      <c r="L82" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C83" s="55">
         <v>77</v>
       </c>
-      <c r="D83" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E83" s="43" t="s">
+      <c r="D83" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F83" s="44" t="s">
+      <c r="F83" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="G83" s="45" t="s">
+      <c r="G83" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H83" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J83" s="48">
+      <c r="H83" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" s="44">
         <v>44379</v>
       </c>
-      <c r="K83" s="45"/>
-      <c r="L83" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C84" s="59">
+      <c r="K83" s="41"/>
+      <c r="L83" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C84" s="55">
         <v>78</v>
       </c>
-      <c r="D84" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E84" s="43" t="s">
+      <c r="D84" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F84" s="44" t="s">
+      <c r="F84" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="G84" s="45" t="s">
+      <c r="G84" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H84" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J84" s="48">
+      <c r="H84" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="44">
         <v>44379</v>
       </c>
-      <c r="K84" s="45"/>
-      <c r="L84" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C85" s="59">
+      <c r="K84" s="41"/>
+      <c r="L84" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C85" s="55">
         <v>79</v>
       </c>
-      <c r="D85" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E85" s="43" t="s">
+      <c r="D85" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E85" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F85" s="44" t="s">
+      <c r="F85" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="G85" s="45" t="s">
+      <c r="G85" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H85" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J85" s="48">
+      <c r="H85" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J85" s="44">
         <v>44379</v>
       </c>
-      <c r="K85" s="45"/>
-      <c r="L85" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C86" s="59">
+      <c r="K85" s="41"/>
+      <c r="L85" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C86" s="55">
         <v>80</v>
       </c>
-      <c r="D86" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E86" s="43" t="s">
+      <c r="D86" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F86" s="44" t="s">
+      <c r="F86" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G86" s="45" t="s">
+      <c r="G86" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H86" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J86" s="48">
+      <c r="H86" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="44">
         <v>44379</v>
       </c>
-      <c r="K86" s="45"/>
-      <c r="L86" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C87" s="59">
+      <c r="K86" s="41"/>
+      <c r="L86" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C87" s="55">
         <v>81</v>
       </c>
-      <c r="D87" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E87" s="43" t="s">
+      <c r="D87" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F87" s="44" t="s">
+      <c r="F87" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="G87" s="45" t="s">
+      <c r="G87" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H87" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J87" s="48">
+      <c r="H87" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J87" s="44">
         <v>44379</v>
       </c>
-      <c r="K87" s="45"/>
-      <c r="L87" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C88" s="59">
+      <c r="K87" s="41"/>
+      <c r="L87" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C88" s="55">
         <v>82</v>
       </c>
-      <c r="D88" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E88" s="43" t="s">
+      <c r="D88" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F88" s="44" t="s">
+      <c r="F88" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="G88" s="45" t="s">
+      <c r="G88" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H88" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J88" s="48">
+      <c r="H88" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J88" s="44">
         <v>44379</v>
       </c>
-      <c r="K88" s="45"/>
-      <c r="L88" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C89" s="59">
+      <c r="K88" s="41"/>
+      <c r="L88" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C89" s="55">
         <v>83</v>
       </c>
-      <c r="D89" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E89" s="43" t="s">
+      <c r="D89" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F89" s="44" t="s">
+      <c r="F89" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="G89" s="45" t="s">
+      <c r="G89" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H89" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J89" s="48">
+      <c r="H89" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J89" s="44">
         <v>44379</v>
       </c>
-      <c r="K89" s="45"/>
-      <c r="L89" s="49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C90" s="59">
+      <c r="K89" s="41"/>
+      <c r="L89" s="45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C90" s="55">
         <v>84</v>
       </c>
-      <c r="D90" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E90" s="43" t="s">
+      <c r="D90" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F90" s="44" t="s">
+      <c r="F90" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="G90" s="45" t="s">
+      <c r="G90" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H90" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J90" s="48">
+      <c r="H90" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" s="44">
         <v>44379</v>
       </c>
-      <c r="K90" s="45"/>
-      <c r="L90" s="49" t="s">
+      <c r="K90" s="41"/>
+      <c r="L90" s="45" t="s">
         <v>14</v>
       </c>
     </row>
@@ -14655,362 +16489,362 @@
       </c>
     </row>
     <row r="92" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C92" s="41">
+      <c r="C92" s="37">
         <v>86</v>
       </c>
-      <c r="D92" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E92" s="43" t="s">
+      <c r="D92" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F92" s="44" t="s">
+      <c r="F92" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="G92" s="45" t="s">
+      <c r="G92" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H92" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J92" s="48">
+      <c r="H92" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J92" s="44">
         <v>44379</v>
       </c>
-      <c r="K92" s="45"/>
-      <c r="L92" s="49" t="s">
+      <c r="K92" s="41"/>
+      <c r="L92" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="93" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C93" s="41">
+      <c r="C93" s="37">
         <v>87</v>
       </c>
-      <c r="D93" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E93" s="43" t="s">
+      <c r="D93" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F93" s="44" t="s">
+      <c r="F93" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="G93" s="45" t="s">
+      <c r="G93" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H93" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I93" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J93" s="48">
+      <c r="H93" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J93" s="44">
         <v>44379</v>
       </c>
-      <c r="K93" s="45"/>
-      <c r="L93" s="49" t="s">
+      <c r="K93" s="41"/>
+      <c r="L93" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="94" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C94" s="41">
+      <c r="C94" s="37">
         <v>88</v>
       </c>
-      <c r="D94" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E94" s="43" t="s">
+      <c r="D94" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E94" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="44" t="s">
+      <c r="F94" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="G94" s="45" t="s">
+      <c r="G94" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H94" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I94" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J94" s="48">
+      <c r="H94" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J94" s="44">
         <v>44379</v>
       </c>
-      <c r="K94" s="45"/>
-      <c r="L94" s="49" t="s">
+      <c r="K94" s="41"/>
+      <c r="L94" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="95" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C95" s="41">
+      <c r="C95" s="37">
         <v>89</v>
       </c>
-      <c r="D95" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E95" s="43" t="s">
+      <c r="D95" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E95" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="G95" s="45" t="s">
+      <c r="G95" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H95" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I95" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J95" s="48">
+      <c r="H95" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J95" s="44">
         <v>44379</v>
       </c>
-      <c r="K95" s="45"/>
-      <c r="L95" s="49" t="s">
+      <c r="K95" s="41"/>
+      <c r="L95" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="96" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C96" s="41">
+      <c r="C96" s="37">
         <v>90</v>
       </c>
-      <c r="D96" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E96" s="43" t="s">
+      <c r="D96" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E96" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F96" s="44" t="s">
+      <c r="F96" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="G96" s="45" t="s">
+      <c r="G96" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H96" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I96" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J96" s="48">
+      <c r="H96" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="44">
         <v>44379</v>
       </c>
-      <c r="K96" s="45"/>
-      <c r="L96" s="49" t="s">
+      <c r="K96" s="41"/>
+      <c r="L96" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="97" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C97" s="41">
+      <c r="C97" s="37">
         <v>91</v>
       </c>
-      <c r="D97" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E97" s="43" t="s">
+      <c r="D97" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E97" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F97" s="44" t="s">
+      <c r="F97" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="G97" s="45" t="s">
+      <c r="G97" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H97" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I97" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J97" s="48">
+      <c r="H97" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I97" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="44">
         <v>44379</v>
       </c>
-      <c r="K97" s="45"/>
-      <c r="L97" s="49" t="s">
+      <c r="K97" s="41"/>
+      <c r="L97" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="98" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C98" s="41">
+      <c r="C98" s="37">
         <v>92</v>
       </c>
-      <c r="D98" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E98" s="43" t="s">
+      <c r="D98" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E98" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F98" s="44" t="s">
+      <c r="F98" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="G98" s="45" t="s">
+      <c r="G98" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H98" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I98" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J98" s="48">
+      <c r="H98" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="44">
         <v>44379</v>
       </c>
-      <c r="K98" s="45"/>
-      <c r="L98" s="49" t="s">
+      <c r="K98" s="41"/>
+      <c r="L98" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C99" s="41">
+      <c r="C99" s="37">
         <v>93</v>
       </c>
-      <c r="D99" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E99" s="43" t="s">
+      <c r="D99" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E99" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F99" s="44" t="s">
+      <c r="F99" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="G99" s="45" t="s">
+      <c r="G99" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H99" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I99" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J99" s="48">
+      <c r="H99" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="44">
         <v>44379</v>
       </c>
-      <c r="K99" s="45"/>
-      <c r="L99" s="49" t="s">
+      <c r="K99" s="41"/>
+      <c r="L99" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C100" s="41">
+      <c r="C100" s="37">
         <v>94</v>
       </c>
-      <c r="D100" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E100" s="43" t="s">
+      <c r="D100" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E100" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F100" s="44" t="s">
+      <c r="F100" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="G100" s="45" t="s">
+      <c r="G100" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H100" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I100" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J100" s="48">
+      <c r="H100" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="44">
         <v>44379</v>
       </c>
-      <c r="K100" s="45"/>
-      <c r="L100" s="49" t="s">
+      <c r="K100" s="41"/>
+      <c r="L100" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C101" s="41">
+      <c r="C101" s="37">
         <v>95</v>
       </c>
-      <c r="D101" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E101" s="43" t="s">
+      <c r="D101" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F101" s="44" t="s">
+      <c r="F101" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="G101" s="45" t="s">
+      <c r="G101" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H101" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I101" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J101" s="48">
+      <c r="H101" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J101" s="44">
         <v>44379</v>
       </c>
-      <c r="K101" s="45"/>
-      <c r="L101" s="49" t="s">
+      <c r="K101" s="41"/>
+      <c r="L101" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="102" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C102" s="41">
+      <c r="C102" s="37">
         <v>96</v>
       </c>
-      <c r="D102" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E102" s="43" t="s">
+      <c r="D102" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E102" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F102" s="44" t="s">
+      <c r="F102" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="G102" s="45" t="s">
+      <c r="G102" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H102" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I102" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J102" s="48">
+      <c r="H102" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J102" s="44">
         <v>44379</v>
       </c>
-      <c r="K102" s="45"/>
-      <c r="L102" s="49" t="s">
+      <c r="K102" s="41"/>
+      <c r="L102" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="103" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C103" s="41">
+      <c r="C103" s="37">
         <v>97</v>
       </c>
-      <c r="D103" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E103" s="43" t="s">
+      <c r="D103" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="E103" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="F103" s="44" t="s">
+      <c r="F103" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="G103" s="45" t="s">
+      <c r="G103" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="H103" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J103" s="48">
+      <c r="H103" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J103" s="44">
         <v>44379</v>
       </c>
-      <c r="K103" s="45"/>
-      <c r="L103" s="49" t="s">
+      <c r="K103" s="41"/>
+      <c r="L103" s="45" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15045,32 +16879,32 @@
       </c>
     </row>
     <row r="105" spans="3:12" ht="54" x14ac:dyDescent="0.45">
-      <c r="C105" s="41">
+      <c r="C105" s="37">
         <v>99</v>
       </c>
-      <c r="D105" s="42" t="s">
+      <c r="D105" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E105" s="43" t="s">
+      <c r="E105" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F105" s="44" t="s">
+      <c r="F105" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="G105" s="45" t="s">
+      <c r="G105" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="H105" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I105" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J105" s="48">
+      <c r="H105" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="J105" s="44">
         <v>44379</v>
       </c>
-      <c r="K105" s="45"/>
-      <c r="L105" s="49" t="s">
+      <c r="K105" s="41"/>
+      <c r="L105" s="45" t="s">
         <v>14</v>
       </c>
     </row>
@@ -15104,23 +16938,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C107" s="64">
+    <row r="107" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C107" s="60">
         <v>101</v>
       </c>
-      <c r="D107" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="E107" s="66" t="s">
+      <c r="D107" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E107" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="F107" s="67" t="s">
+      <c r="F107" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="G107" s="68" t="s">
+      <c r="G107" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="H107" s="69" t="s">
+      <c r="H107" s="65" t="s">
         <v>12</v>
       </c>
       <c r="I107" s="8" t="s">
@@ -15129,7 +16963,7 @@
       <c r="J107" s="9">
         <v>44370</v>
       </c>
-      <c r="K107" s="68"/>
+      <c r="K107" s="64"/>
       <c r="L107" s="10" t="s">
         <v>14</v>
       </c>
@@ -15141,7 +16975,7 @@
       <c r="D108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E108" s="39" t="s">
+      <c r="E108" s="35" t="s">
         <v>117</v>
       </c>
       <c r="F108" s="5" t="s">
@@ -15156,7 +16990,7 @@
       <c r="I108" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J108" s="40">
+      <c r="J108" s="36">
         <v>44370</v>
       </c>
       <c r="K108" s="2"/>
@@ -15164,67 +16998,67 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="3:12" s="63" customFormat="1" ht="54" x14ac:dyDescent="0.45">
-      <c r="C109" s="50">
+    <row r="109" spans="3:12" s="59" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="C109" s="46">
         <v>103</v>
       </c>
-      <c r="D109" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E109" s="52" t="s">
+      <c r="D109" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="F109" s="53" t="s">
+      <c r="F109" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="G109" s="54" t="s">
+      <c r="G109" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="H109" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="I109" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="J109" s="57">
+      <c r="H109" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="J109" s="53">
         <v>44379</v>
       </c>
-      <c r="K109" s="54"/>
-      <c r="L109" s="58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="3:12" s="63" customFormat="1" ht="108" x14ac:dyDescent="0.45">
-      <c r="C110" s="41">
+      <c r="K109" s="50"/>
+      <c r="L109" s="54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="3:12" s="59" customFormat="1" ht="108" x14ac:dyDescent="0.45">
+      <c r="C110" s="37">
         <v>104</v>
       </c>
-      <c r="D110" s="42" t="s">
+      <c r="D110" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E110" s="43" t="s">
+      <c r="E110" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F110" s="44" t="s">
+      <c r="F110" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="G110" s="45" t="s">
+      <c r="G110" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="H110" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I110" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="J110" s="61">
+      <c r="H110" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J110" s="57">
         <v>44379</v>
       </c>
-      <c r="K110" s="45"/>
-      <c r="L110" s="62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="K110" s="41"/>
+      <c r="L110" s="58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="3:12" ht="54" x14ac:dyDescent="0.45">
       <c r="C111" s="23">
         <v>105</v>
       </c>
@@ -15232,783 +17066,1239 @@
         <v>111</v>
       </c>
       <c r="E111" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F111" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G111" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H111" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J111" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K111" s="26"/>
+      <c r="L111" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C112" s="23">
+        <v>106</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G112" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J112" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K112" s="26"/>
+      <c r="L112" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C113" s="23">
+        <v>107</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E113" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G113" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H113" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J113" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K113" s="26"/>
+      <c r="L113" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C114" s="23">
+        <v>108</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E114" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G114" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H114" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J114" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K114" s="26"/>
+      <c r="L114" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C115" s="23">
+        <v>109</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G115" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H115" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J115" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K115" s="26"/>
+      <c r="L115" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C116" s="23">
+        <v>110</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G116" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H116" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I116" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J116" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K116" s="26"/>
+      <c r="L116" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C117" s="23">
+        <v>111</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E117" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G117" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H117" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J117" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K117" s="26"/>
+      <c r="L117" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C118" s="23">
+        <v>112</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E118" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G118" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H118" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J118" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K118" s="26"/>
+      <c r="L118" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C119" s="23">
+        <v>113</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E119" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F119" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G119" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H119" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I119" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J119" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K119" s="26"/>
+      <c r="L119" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C120" s="23">
+        <v>114</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E120" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G120" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H120" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J120" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K120" s="26"/>
+      <c r="L120" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C121" s="23">
+        <v>115</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G121" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H121" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J121" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K121" s="26"/>
+      <c r="L121" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C122" s="23">
+        <v>116</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H122" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J122" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K122" s="26"/>
+      <c r="L122" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C123" s="23">
         <v>117</v>
       </c>
-      <c r="F111" s="25" t="s">
+      <c r="D123" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E123" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G123" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H123" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I123" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J123" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K123" s="26"/>
+      <c r="L123" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C124" s="23">
+        <v>118</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E124" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G124" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H124" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I124" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J124" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K124" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="L124" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C125" s="23">
+        <v>119</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E125" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G125" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H125" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I125" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J125" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K125" s="26"/>
+      <c r="L125" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="3:12" ht="54" x14ac:dyDescent="0.45">
+      <c r="C126" s="23">
+        <v>120</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E126" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G126" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="H126" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J126" s="114">
+        <v>44397</v>
+      </c>
+      <c r="K126" s="26"/>
+      <c r="L126" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C127" s="23">
+        <v>121</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E127" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F127" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="G111" s="26" t="s">
+      <c r="G127" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="H111" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I111" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="J111" s="72">
-        <v>44370</v>
-      </c>
-      <c r="K111" s="26"/>
-      <c r="L111" s="73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="112" spans="3:12" ht="36" x14ac:dyDescent="0.45">
-      <c r="C112" s="74">
-        <v>106</v>
-      </c>
-      <c r="D112" s="75" t="s">
+      <c r="H127" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I127" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="J127" s="68">
+        <v>44370</v>
+      </c>
+      <c r="K127" s="26"/>
+      <c r="L127" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="3:12" ht="36" x14ac:dyDescent="0.45">
+      <c r="C128" s="119">
+        <v>122</v>
+      </c>
+      <c r="D128" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="E112" s="75" t="s">
+      <c r="E128" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="F112" s="76" t="s">
+      <c r="F128" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="G112" s="77" t="s">
+      <c r="G128" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H112" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I112" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J112" s="80">
+      <c r="H128" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I128" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J128" s="75">
         <v>44397</v>
       </c>
-      <c r="K112" s="77"/>
-      <c r="L112" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="113" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C113" s="74">
-        <v>107</v>
-      </c>
-      <c r="D113" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E113" s="82" t="s">
+      <c r="K128" s="72"/>
+      <c r="L128" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C129" s="119">
+        <v>123</v>
+      </c>
+      <c r="D129" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E129" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="F113" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="G113" s="77" t="s">
+      <c r="F129" s="71" t="s">
+        <v>245</v>
+      </c>
+      <c r="G129" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H129" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J129" s="105">
+        <v>44397</v>
+      </c>
+      <c r="K129" s="74"/>
+      <c r="L129" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C130" s="119">
+        <v>124</v>
+      </c>
+      <c r="D130" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E130" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F130" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="G130" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="H113" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I113" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="J113" s="117">
+      <c r="H130" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J130" s="105">
         <v>44397</v>
       </c>
-      <c r="K113" s="77"/>
-      <c r="L113" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="114" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C114" s="74">
-        <v>108</v>
-      </c>
-      <c r="D114" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E114" s="76" t="s">
+      <c r="K130" s="74"/>
+      <c r="L130" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C131" s="119">
+        <v>125</v>
+      </c>
+      <c r="D131" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E131" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="F114" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="G114" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H114" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I114" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J114" s="118">
+      <c r="F131" s="71" t="s">
+        <v>246</v>
+      </c>
+      <c r="G131" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H131" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" s="105">
         <v>44397</v>
       </c>
-      <c r="K114" s="79"/>
-      <c r="L114" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C115" s="74">
-        <v>109</v>
-      </c>
-      <c r="D115" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E115" s="76" t="s">
+      <c r="K131" s="74"/>
+      <c r="L131" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C132" s="119">
+        <v>126</v>
+      </c>
+      <c r="D132" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E132" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="F115" s="76" t="s">
-        <v>188</v>
-      </c>
-      <c r="G115" s="77" t="s">
+      <c r="F132" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="G132" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H132" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" s="105">
+        <v>44397</v>
+      </c>
+      <c r="K132" s="74"/>
+      <c r="L132" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C133" s="119">
+        <v>127</v>
+      </c>
+      <c r="D133" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E133" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F133" s="71" t="s">
+        <v>248</v>
+      </c>
+      <c r="G133" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H133" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I133" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J133" s="105">
+        <v>44397</v>
+      </c>
+      <c r="K133" s="74"/>
+      <c r="L133" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C134" s="119">
+        <v>128</v>
+      </c>
+      <c r="D134" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E134" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F134" s="71" t="s">
+        <v>249</v>
+      </c>
+      <c r="G134" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H134" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J134" s="105">
+        <v>44397</v>
+      </c>
+      <c r="K134" s="74"/>
+      <c r="L134" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C135" s="119">
+        <v>129</v>
+      </c>
+      <c r="D135" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E135" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F135" s="71" t="s">
+        <v>250</v>
+      </c>
+      <c r="G135" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H135" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I135" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J135" s="105">
+        <v>44397</v>
+      </c>
+      <c r="K135" s="74"/>
+      <c r="L135" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C136" s="119">
+        <v>130</v>
+      </c>
+      <c r="D136" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E136" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F136" s="71" t="s">
+        <v>251</v>
+      </c>
+      <c r="G136" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H136" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J136" s="105">
+        <v>44397</v>
+      </c>
+      <c r="K136" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="L136" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C137" s="119">
+        <v>131</v>
+      </c>
+      <c r="D137" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E137" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F137" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="G137" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H137" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I137" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J137" s="105">
+        <v>44397</v>
+      </c>
+      <c r="K137" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="H115" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I115" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J115" s="118">
+      <c r="L137" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="3:12" ht="72" x14ac:dyDescent="0.45">
+      <c r="C138" s="119">
+        <v>132</v>
+      </c>
+      <c r="D138" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E138" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F138" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="G138" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H138" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="I138" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J138" s="105">
         <v>44397</v>
       </c>
-      <c r="K115" s="79"/>
-      <c r="L115" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C116" s="74">
-        <v>110</v>
-      </c>
-      <c r="D116" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E116" s="76" t="s">
+      <c r="K138" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="L138" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C139" s="119">
+        <v>133</v>
+      </c>
+      <c r="D139" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E139" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="F116" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="G116" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H116" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I116" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J116" s="118">
+      <c r="F139" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="G139" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H139" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I139" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J139" s="105">
         <v>44397</v>
       </c>
-      <c r="K116" s="79"/>
-      <c r="L116" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C117" s="74">
-        <v>111</v>
-      </c>
-      <c r="D117" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E117" s="76" t="s">
+      <c r="K139" s="74"/>
+      <c r="L139" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C140" s="119">
+        <v>134</v>
+      </c>
+      <c r="D140" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E140" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="F117" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="G117" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H117" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J117" s="118">
+      <c r="F140" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="G140" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="H140" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="I140" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J140" s="105">
         <v>44397</v>
       </c>
-      <c r="K117" s="79"/>
-      <c r="L117" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C118" s="74">
-        <v>112</v>
-      </c>
-      <c r="D118" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E118" s="76" t="s">
+      <c r="K140" s="74"/>
+      <c r="L140" s="108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C141" s="118">
+        <v>135</v>
+      </c>
+      <c r="D141" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E141" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F118" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="G118" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H118" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J118" s="118">
+      <c r="F141" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="G141" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="H141" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I141" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J141" s="106">
         <v>44397</v>
       </c>
-      <c r="K118" s="79"/>
-      <c r="L118" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C119" s="74">
-        <v>113</v>
-      </c>
-      <c r="D119" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E119" s="76" t="s">
+      <c r="K141" s="80"/>
+      <c r="L141" s="109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C142" s="118">
+        <v>136</v>
+      </c>
+      <c r="D142" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E142" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F119" s="76" t="s">
-        <v>192</v>
-      </c>
-      <c r="G119" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H119" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J119" s="118">
+      <c r="F142" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="G142" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="H142" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I142" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J142" s="106">
         <v>44397</v>
       </c>
-      <c r="K119" s="79"/>
-      <c r="L119" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C120" s="74">
-        <v>114</v>
-      </c>
-      <c r="D120" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E120" s="76" t="s">
+      <c r="K142" s="80"/>
+      <c r="L142" s="109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C143" s="118">
+        <v>137</v>
+      </c>
+      <c r="D143" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E143" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F120" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="G120" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H120" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I120" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J120" s="118">
+      <c r="F143" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="G143" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H143" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J143" s="106">
         <v>44397</v>
       </c>
-      <c r="K120" s="79"/>
-      <c r="L120" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C121" s="74">
-        <v>115</v>
-      </c>
-      <c r="D121" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E121" s="76" t="s">
+      <c r="K143" s="80"/>
+      <c r="L143" s="109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C144" s="118">
+        <v>138</v>
+      </c>
+      <c r="D144" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E144" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F121" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="G121" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H121" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I121" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J121" s="118">
+      <c r="F144" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="G144" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H144" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J144" s="106">
         <v>44397</v>
       </c>
-      <c r="K121" s="76" t="s">
-        <v>216</v>
-      </c>
-      <c r="L121" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C122" s="74">
-        <v>116</v>
-      </c>
-      <c r="D122" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E122" s="76" t="s">
+      <c r="K144" s="80"/>
+      <c r="L144" s="109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C145" s="118">
+        <v>139</v>
+      </c>
+      <c r="D145" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E145" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F122" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="G122" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H122" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I122" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J122" s="118">
+      <c r="F145" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="G145" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H145" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J145" s="106">
         <v>44397</v>
       </c>
-      <c r="K122" s="76" t="s">
-        <v>215</v>
-      </c>
-      <c r="L122" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C123" s="74">
-        <v>117</v>
-      </c>
-      <c r="D123" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E123" s="76" t="s">
+      <c r="K145" s="80"/>
+      <c r="L145" s="109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C146" s="118">
+        <v>140</v>
+      </c>
+      <c r="D146" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E146" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F123" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="G123" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="H123" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I123" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J123" s="118">
+      <c r="F146" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="G146" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H146" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I146" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J146" s="106">
         <v>44397</v>
       </c>
-      <c r="K123" s="79"/>
-      <c r="L123" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C124" s="74">
-        <v>118</v>
-      </c>
-      <c r="D124" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E124" s="76" t="s">
+      <c r="K146" s="80"/>
+      <c r="L146" s="109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C147" s="118">
+        <v>141</v>
+      </c>
+      <c r="D147" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E147" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F124" s="76" t="s">
-        <v>212</v>
-      </c>
-      <c r="G124" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H124" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I124" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J124" s="118">
+      <c r="F147" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="G147" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H147" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I147" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J147" s="106">
         <v>44397</v>
       </c>
-      <c r="K124" s="79"/>
-      <c r="L124" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="3:12" ht="72" x14ac:dyDescent="0.45">
-      <c r="C125" s="74">
-        <v>119</v>
-      </c>
-      <c r="D125" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E125" s="76" t="s">
+      <c r="K147" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="L147" s="109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C148" s="118">
+        <v>142</v>
+      </c>
+      <c r="D148" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E148" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F125" s="76" t="s">
-        <v>197</v>
-      </c>
-      <c r="G125" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="H125" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I125" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J125" s="118">
+      <c r="F148" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="G148" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="H148" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I148" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148" s="106">
         <v>44397</v>
       </c>
-      <c r="K125" s="79"/>
-      <c r="L125" s="81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C126" s="74">
+      <c r="K148" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="L148" s="109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C149" s="118">
+        <v>143</v>
+      </c>
+      <c r="D149" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E149" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="F149" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="G149" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="H149" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="D126" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="E126" s="76" t="s">
+      <c r="I149" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J149" s="106">
+        <v>44397</v>
+      </c>
+      <c r="K149" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="L149" s="109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C150" s="118">
+        <v>144</v>
+      </c>
+      <c r="D150" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E150" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="F126" s="76" t="s">
-        <v>211</v>
-      </c>
-      <c r="G126" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="H126" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="I126" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="J126" s="118">
+      <c r="F150" s="78" t="s">
+        <v>264</v>
+      </c>
+      <c r="G150" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="H150" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="J150" s="106">
         <v>44397</v>
       </c>
-      <c r="K126" s="79"/>
-      <c r="L126" s="121" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C127" s="86">
-        <v>121</v>
-      </c>
-      <c r="D127" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E127" s="88" t="s">
+      <c r="K150" s="80"/>
+      <c r="L150" s="109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="3:12" ht="90" x14ac:dyDescent="0.45">
+      <c r="C151" s="81">
+        <v>145</v>
+      </c>
+      <c r="D151" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="E151" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="F127" s="88" t="s">
-        <v>206</v>
-      </c>
-      <c r="G127" s="89" t="s">
-        <v>207</v>
-      </c>
-      <c r="H127" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I127" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J127" s="119">
+      <c r="F151" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="G151" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="H151" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="I151" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="J151" s="107">
         <v>44397</v>
       </c>
-      <c r="K127" s="90"/>
-      <c r="L127" s="122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="128" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C128" s="86">
-        <v>122</v>
-      </c>
-      <c r="D128" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E128" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="F128" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="G128" s="89" t="s">
-        <v>137</v>
-      </c>
-      <c r="H128" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I128" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J128" s="119">
-        <v>44397</v>
-      </c>
-      <c r="K128" s="90"/>
-      <c r="L128" s="122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="129" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C129" s="86">
-        <v>123</v>
-      </c>
-      <c r="D129" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E129" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="F129" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="G129" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="H129" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I129" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J129" s="119">
-        <v>44397</v>
-      </c>
-      <c r="K129" s="90"/>
-      <c r="L129" s="122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C130" s="86">
-        <v>124</v>
-      </c>
-      <c r="D130" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E130" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="F130" s="88" t="s">
-        <v>200</v>
-      </c>
-      <c r="G130" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="H130" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I130" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J130" s="119">
-        <v>44397</v>
-      </c>
-      <c r="K130" s="90"/>
-      <c r="L130" s="122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C131" s="86">
-        <v>125</v>
-      </c>
-      <c r="D131" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E131" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="F131" s="88" t="s">
-        <v>201</v>
-      </c>
-      <c r="G131" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="H131" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I131" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J131" s="119">
-        <v>44397</v>
-      </c>
-      <c r="K131" s="90"/>
-      <c r="L131" s="122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C132" s="86">
-        <v>126</v>
-      </c>
-      <c r="D132" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E132" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="F132" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="G132" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="H132" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I132" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J132" s="119">
-        <v>44397</v>
-      </c>
-      <c r="K132" s="90"/>
-      <c r="L132" s="122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C133" s="86">
-        <v>127</v>
-      </c>
-      <c r="D133" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E133" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="F133" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="G133" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="H133" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I133" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J133" s="119">
-        <v>44397</v>
-      </c>
-      <c r="K133" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="L133" s="122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C134" s="86">
-        <v>128</v>
-      </c>
-      <c r="D134" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E134" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="F134" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="G134" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="H134" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I134" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J134" s="119">
-        <v>44397</v>
-      </c>
-      <c r="K134" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="L134" s="122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C135" s="86">
-        <v>129</v>
-      </c>
-      <c r="D135" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="E135" s="88" t="s">
-        <v>170</v>
-      </c>
-      <c r="F135" s="88" t="s">
-        <v>214</v>
-      </c>
-      <c r="G135" s="89" t="s">
-        <v>205</v>
-      </c>
-      <c r="H135" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="I135" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="J135" s="119">
-        <v>44397</v>
-      </c>
-      <c r="K135" s="90"/>
-      <c r="L135" s="122" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="3:12" ht="90" x14ac:dyDescent="0.45">
-      <c r="C136" s="91">
-        <v>130</v>
-      </c>
-      <c r="D136" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="E136" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="F136" s="93" t="s">
-        <v>213</v>
-      </c>
-      <c r="G136" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="H136" s="116" t="s">
-        <v>12</v>
-      </c>
-      <c r="I136" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="J136" s="120">
-        <v>44397</v>
-      </c>
-      <c r="K136" s="95"/>
-      <c r="L136" s="123" t="s">
+      <c r="K151" s="85"/>
+      <c r="L151" s="110" t="s">
         <v>14</v>
       </c>
     </row>
